--- a/blueprint-jira-better-excel/Quasar-Issues.xlsx
+++ b/blueprint-jira-better-excel/Quasar-Issues.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\afolomechine\Documents\BLUEPRINT\JIRA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\etc\blueprint-jira-better-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
   </definedNames>
   <calcPr calcId="171027"/>
   <pivotCaches>
-    <pivotCache cacheId="19" r:id="rId8"/>
+    <pivotCache cacheId="42" r:id="rId8"/>
   </pivotCaches>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
@@ -1725,6 +1725,9 @@
                   <c:v>2264.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>2220.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1843,6 +1846,9 @@
                   <c:v>2177</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>2144</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1963,6 +1969,9 @@
                   <c:v>1563.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>1699.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2081,6 +2090,9 @@
                   <c:v>1263.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>1310.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2869,6 +2881,9 @@
                   <c:v>1171</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>1106</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2987,6 +3002,9 @@
                   <c:v>1113.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>1050.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3107,6 +3125,9 @@
                   <c:v>614</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>709</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3225,6 +3246,9 @@
                   <c:v>537</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>579.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4017,6 +4041,9 @@
                   <c:v>777</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>787</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4135,6 +4162,9 @@
                   <c:v>755</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>777</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4255,6 +4285,9 @@
                   <c:v>704</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>734</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4373,6 +4406,9 @@
                   <c:v>527.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>527.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -6721,7 +6757,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43292.308686921293" missingItemsLimit="0" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="46">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43299.316672222223" missingItemsLimit="0" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="46">
   <cacheSource type="worksheet">
     <worksheetSource name="issues"/>
   </cacheSource>
@@ -8751,7 +8787,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="42" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
   <location ref="A5:C6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="40">
     <pivotField dataField="1" subtotalTop="0" showAll="0"/>
@@ -8920,171 +8956,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
-  <location ref="A41:B43" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="40">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="47">
-        <item h="1" x="0"/>
-        <item h="1" x="41"/>
-        <item h="1" x="39"/>
-        <item h="1" x="43"/>
-        <item h="1" x="45"/>
-        <item h="1" x="36"/>
-        <item h="1" x="42"/>
-        <item h="1" x="38"/>
-        <item h="1" x="37"/>
-        <item h="1" x="40"/>
-        <item h="1" x="44"/>
-        <item h="1" x="8"/>
-        <item h="1" x="3"/>
-        <item h="1" x="9"/>
-        <item h="1" x="7"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item h="1" x="5"/>
-        <item h="1" x="4"/>
-        <item h="1" x="22"/>
-        <item x="15"/>
-        <item x="18"/>
-        <item h="1" x="16"/>
-        <item x="13"/>
-        <item x="17"/>
-        <item x="10"/>
-        <item x="19"/>
-        <item x="12"/>
-        <item x="20"/>
-        <item x="11"/>
-        <item x="14"/>
-        <item x="21"/>
-        <item h="1" x="35"/>
-        <item x="28"/>
-        <item x="31"/>
-        <item h="1" x="29"/>
-        <item x="26"/>
-        <item x="30"/>
-        <item x="23"/>
-        <item x="32"/>
-        <item x="25"/>
-        <item x="33"/>
-        <item x="24"/>
-        <item x="27"/>
-        <item x="34"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="5">
-        <item h="1" x="0"/>
-        <item h="1" x="2"/>
-        <item x="3"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0" sortType="ascending">
-      <items count="12">
-        <item h="1" x="0"/>
-        <item x="6"/>
-        <item h="1" x="10"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="9"/>
-        <item x="4"/>
-        <item h="1" x="8"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="33"/>
-  </rowFields>
-  <rowItems count="1">
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="1"/>
-  </colFields>
-  <colItems count="1">
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="30" hier="-1"/>
-    <pageField fld="4" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Different Story Points" fld="36" baseField="26" baseItem="1"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="42" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
   <location ref="D5:E17" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="40">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -9277,8 +9149,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="42" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
   <location ref="A5:B17" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="40">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -9466,8 +9338,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="42" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
   <location ref="J5:L15" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="40">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -9648,8 +9520,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable7" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable7" cacheId="42" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
   <location ref="G41:H43" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="40">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -9812,8 +9684,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="42" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
   <location ref="A24:C27" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="40">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -9981,8 +9853,172 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="42" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
+  <location ref="A41:B43" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="40">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="47">
+        <item h="1" x="0"/>
+        <item h="1" x="41"/>
+        <item h="1" x="39"/>
+        <item h="1" x="43"/>
+        <item h="1" x="45"/>
+        <item h="1" x="36"/>
+        <item h="1" x="42"/>
+        <item h="1" x="38"/>
+        <item h="1" x="37"/>
+        <item h="1" x="40"/>
+        <item h="1" x="44"/>
+        <item h="1" x="8"/>
+        <item h="1" x="3"/>
+        <item h="1" x="9"/>
+        <item h="1" x="7"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item h="1" x="5"/>
+        <item h="1" x="4"/>
+        <item h="1" x="22"/>
+        <item x="15"/>
+        <item x="18"/>
+        <item h="1" x="16"/>
+        <item x="13"/>
+        <item x="17"/>
+        <item x="10"/>
+        <item x="19"/>
+        <item x="12"/>
+        <item x="20"/>
+        <item x="11"/>
+        <item x="14"/>
+        <item x="21"/>
+        <item h="1" x="35"/>
+        <item x="28"/>
+        <item x="31"/>
+        <item h="1" x="29"/>
+        <item x="26"/>
+        <item x="30"/>
+        <item x="23"/>
+        <item x="32"/>
+        <item x="25"/>
+        <item x="33"/>
+        <item x="24"/>
+        <item x="27"/>
+        <item x="34"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="5">
+        <item h="1" x="0"/>
+        <item h="1" x="2"/>
+        <item x="3"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0" sortType="ascending">
+      <items count="12">
+        <item h="1" x="0"/>
+        <item x="6"/>
+        <item h="1" x="10"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="4"/>
+        <item h="1" x="8"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="33"/>
+  </rowFields>
+  <rowItems count="1">
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="1">
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="30" hier="-1"/>
+    <pageField fld="4" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Different Story Points" fld="36" baseField="26" baseItem="1"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" missingCaption="0" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Component">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="42" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" missingCaption="0" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Component">
   <location ref="A5:C8" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="40">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -10606,14 +10642,14 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
-      <pivotSelection pane="bottomRight" activeRow="1" previousRow="1" click="1" r:id="rId3">
+      <pivotSelection pane="bottomRight" activeRow="1" previousRow="1" click="1" r:id="rId2">
         <pivotArea field="30" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="0"/>
       </pivotSelection>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.86328125" bestFit="1" customWidth="1"/>
@@ -11957,7 +11993,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -12846,98 +12882,86 @@
       <c r="C11" s="44">
         <v>43298</v>
       </c>
-      <c r="D11" s="41" t="e">
-        <f>GETPIVOTDATA("Epic Total Estimate", Features!$A$5, "Type", "Epic")</f>
-        <v>#REF!</v>
+      <c r="D11" s="41">
+        <v>2220.5</v>
       </c>
       <c r="E11" s="48">
         <v>2350</v>
       </c>
-      <c r="F11" s="42" t="e">
-        <f>GETPIVOTDATA("Stories Estimate", Features!$A$5, "Type", "Epic")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G11" s="42" t="e">
-        <f>GETPIVOTDATA("Epic Decomposed", Features!$A$5, "Type", "Epic")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H11" s="42" t="e">
-        <f t="shared" ref="H11" si="54">D11-I11</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I11" s="42" t="e">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", Features!$A$5, "Type", "Epic")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J11" s="21" t="e">
+      <c r="F11" s="42">
+        <v>2144</v>
+      </c>
+      <c r="G11" s="42">
+        <v>1699.5</v>
+      </c>
+      <c r="H11" s="42">
+        <f t="shared" ref="H11:H12" si="54">D11-I11</f>
+        <v>1310.5</v>
+      </c>
+      <c r="I11" s="42">
+        <v>910</v>
+      </c>
+      <c r="J11" s="21">
         <f t="shared" ref="J11" si="55" xml:space="preserve"> G11/D11</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K11" s="21" t="e">
+        <v>0.76536816032425126</v>
+      </c>
+      <c r="K11" s="21">
         <f t="shared" ref="K11" si="56" xml:space="preserve"> H11/D11</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L11" s="43" t="e">
-        <f>GETPIVOTDATA("Epic Total Estimate", Features!$A$5, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
-        <v>#REF!</v>
+        <v>0.59018239135329875</v>
+      </c>
+      <c r="L11" s="43">
+        <v>1106</v>
       </c>
       <c r="M11" s="48">
         <v>1400</v>
       </c>
-      <c r="N11" s="42" t="e">
-        <f>GETPIVOTDATA("Stories Estimate", Features!$A$5, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O11" s="42" t="e">
-        <f>GETPIVOTDATA("Epic Decomposed", Features!$A$5, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P11" s="42" t="e">
+      <c r="N11" s="42">
+        <v>1050.5</v>
+      </c>
+      <c r="O11" s="42">
+        <v>709</v>
+      </c>
+      <c r="P11" s="42">
         <f t="shared" ref="P11" si="57">L11-Q11</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q11" s="42" t="e">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", Features!$A$5, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="R11" s="21" t="e">
+        <v>579.5</v>
+      </c>
+      <c r="Q11" s="42">
+        <v>526.5</v>
+      </c>
+      <c r="R11" s="21">
         <f t="shared" ref="R11" si="58" xml:space="preserve"> O11/L11</f>
-        <v>#REF!</v>
-      </c>
-      <c r="S11" s="21" t="e">
+        <v>0.6410488245931284</v>
+      </c>
+      <c r="S11" s="21">
         <f t="shared" ref="S11" si="59" xml:space="preserve"> P11/L11</f>
-        <v>#REF!</v>
-      </c>
-      <c r="T11" s="41" t="e">
-        <f>GETPIVOTDATA("Epic Total Estimate", Features!$A$5, "Type", "Epic", "ST:Components", "Artifact List")</f>
-        <v>#REF!</v>
+        <v>0.52396021699819173</v>
+      </c>
+      <c r="T11" s="41">
+        <v>787</v>
       </c>
       <c r="U11" s="48">
         <v>675</v>
       </c>
-      <c r="V11" s="42" t="e">
-        <f>GETPIVOTDATA("Stories Estimate", Features!$A$5, "Type", "Epic", "ST:Components", "Artifact List")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="W11" s="42" t="e">
-        <f>GETPIVOTDATA("Epic Decomposed", Features!$A$5, "Type", "Epic", "ST:Components", "Artifact List")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="X11" s="42" t="e">
+      <c r="V11" s="42">
+        <v>777</v>
+      </c>
+      <c r="W11" s="42">
+        <v>734</v>
+      </c>
+      <c r="X11" s="42">
         <f t="shared" ref="X11" si="60">T11-Y11</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Y11" s="42" t="e">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", Features!$A$5, "Type", "Epic", "ST:Components", "Artifact List")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Z11" s="21" t="e">
+        <v>527.5</v>
+      </c>
+      <c r="Y11" s="42">
+        <v>259.5</v>
+      </c>
+      <c r="Z11" s="21">
         <f t="shared" ref="Z11" si="61" xml:space="preserve"> W11/T11</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AA11" s="21" t="e">
+        <v>0.93265565438373565</v>
+      </c>
+      <c r="AA11" s="21">
         <f t="shared" ref="AA11" si="62">X11/T11</f>
-        <v>#REF!</v>
+        <v>0.67026683608640403</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.45">
@@ -12950,14 +12974,98 @@
       <c r="C12" s="44">
         <v>43312</v>
       </c>
+      <c r="D12" s="41" t="e">
+        <f>GETPIVOTDATA("Epic Total Estimate", Features!$A$5, "Type", "Epic")</f>
+        <v>#REF!</v>
+      </c>
       <c r="E12" s="48">
         <v>2350</v>
       </c>
+      <c r="F12" s="42" t="e">
+        <f>GETPIVOTDATA("Stories Estimate", Features!$A$5, "Type", "Epic")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G12" s="42" t="e">
+        <f>GETPIVOTDATA("Epic Decomposed", Features!$A$5, "Type", "Epic")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H12" s="42" t="e">
+        <f t="shared" si="54"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I12" s="42" t="e">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", Features!$A$5, "Type", "Epic")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J12" s="21" t="e">
+        <f t="shared" ref="J12" si="63" xml:space="preserve"> G12/D12</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K12" s="21" t="e">
+        <f t="shared" ref="K12" si="64" xml:space="preserve"> H12/D12</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L12" s="43" t="e">
+        <f>GETPIVOTDATA("Epic Total Estimate", Features!$A$5, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
+        <v>#REF!</v>
+      </c>
       <c r="M12" s="48">
         <v>1400</v>
       </c>
+      <c r="N12" s="42" t="e">
+        <f>GETPIVOTDATA("Stories Estimate", Features!$A$5, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O12" s="42" t="e">
+        <f>GETPIVOTDATA("Epic Decomposed", Features!$A$5, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P12" s="42" t="e">
+        <f t="shared" ref="P12" si="65">L12-Q12</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q12" s="42" t="e">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", Features!$A$5, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="R12" s="21" t="e">
+        <f t="shared" ref="R12" si="66" xml:space="preserve"> O12/L12</f>
+        <v>#REF!</v>
+      </c>
+      <c r="S12" s="21" t="e">
+        <f t="shared" ref="S12" si="67" xml:space="preserve"> P12/L12</f>
+        <v>#REF!</v>
+      </c>
+      <c r="T12" s="41" t="e">
+        <f>GETPIVOTDATA("Epic Total Estimate", Features!$A$5, "Type", "Epic", "ST:Components", "Artifact List")</f>
+        <v>#REF!</v>
+      </c>
       <c r="U12" s="48">
         <v>675</v>
+      </c>
+      <c r="V12" s="42" t="e">
+        <f>GETPIVOTDATA("Stories Estimate", Features!$A$5, "Type", "Epic", "ST:Components", "Artifact List")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="W12" s="42" t="e">
+        <f>GETPIVOTDATA("Epic Decomposed", Features!$A$5, "Type", "Epic", "ST:Components", "Artifact List")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="X12" s="42" t="e">
+        <f t="shared" ref="X12" si="68">T12-Y12</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Y12" s="42" t="e">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", Features!$A$5, "Type", "Epic", "ST:Components", "Artifact List")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Z12" s="21" t="e">
+        <f t="shared" ref="Z12" si="69" xml:space="preserve"> W12/T12</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AA12" s="21" t="e">
+        <f t="shared" ref="AA12" si="70">X12/T12</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.45">

--- a/blueprint-jira-better-excel/Quasar-Issues.xlsx
+++ b/blueprint-jira-better-excel/Quasar-Issues.xlsx
@@ -25,7 +25,7 @@
   </definedNames>
   <calcPr calcId="171027"/>
   <pivotCaches>
-    <pivotCache cacheId="42" r:id="rId8"/>
+    <pivotCache cacheId="19" r:id="rId8"/>
   </pivotCaches>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
@@ -1728,6 +1728,9 @@
                   <c:v>2220.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>2306.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1849,6 +1852,9 @@
                   <c:v>2144</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>2212</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1972,6 +1978,9 @@
                   <c:v>1699.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>1865.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2093,6 +2102,9 @@
                   <c:v>1310.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>1513.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2884,6 +2896,9 @@
                   <c:v>1106</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>1077</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3005,6 +3020,9 @@
                   <c:v>1050.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>1053.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3128,6 +3146,9 @@
                   <c:v>709</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>827.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3249,6 +3270,9 @@
                   <c:v>579.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>675.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4044,6 +4068,9 @@
                   <c:v>787</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>872.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4165,6 +4192,9 @@
                   <c:v>777</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>822.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4288,6 +4318,9 @@
                   <c:v>734</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>751.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4409,6 +4442,9 @@
                   <c:v>527.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>615.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -6757,7 +6793,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43299.316672222223" missingItemsLimit="0" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="46">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43313.616298263885" missingItemsLimit="0" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="46">
   <cacheSource type="worksheet">
     <worksheetSource name="issues"/>
   </cacheSource>
@@ -8787,7 +8823,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="42" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
   <location ref="A5:C6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="40">
     <pivotField dataField="1" subtotalTop="0" showAll="0"/>
@@ -8956,7 +8992,340 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="42" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
+  <location ref="A24:C27" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="40">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item h="1" x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="47">
+        <item h="1" x="0"/>
+        <item h="1" x="41"/>
+        <item h="1" x="39"/>
+        <item h="1" x="43"/>
+        <item h="1" x="45"/>
+        <item h="1" x="36"/>
+        <item h="1" x="42"/>
+        <item h="1" x="38"/>
+        <item h="1" x="37"/>
+        <item h="1" x="40"/>
+        <item h="1" x="44"/>
+        <item h="1" x="8"/>
+        <item h="1" x="3"/>
+        <item h="1" x="9"/>
+        <item h="1" x="7"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item h="1" x="5"/>
+        <item h="1" x="4"/>
+        <item h="1" x="22"/>
+        <item h="1" x="15"/>
+        <item h="1" x="18"/>
+        <item h="1" x="16"/>
+        <item h="1" x="13"/>
+        <item h="1" x="17"/>
+        <item h="1" x="10"/>
+        <item h="1" x="19"/>
+        <item x="12"/>
+        <item h="1" x="20"/>
+        <item h="1" x="11"/>
+        <item h="1" x="14"/>
+        <item h="1" x="21"/>
+        <item h="1" x="35"/>
+        <item h="1" x="28"/>
+        <item h="1" x="31"/>
+        <item h="1" x="29"/>
+        <item h="1" x="26"/>
+        <item h="1" x="30"/>
+        <item h="1" x="23"/>
+        <item h="1" x="32"/>
+        <item x="25"/>
+        <item h="1" x="33"/>
+        <item h="1" x="24"/>
+        <item h="1" x="27"/>
+        <item h="1" x="34"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="5">
+        <item h="1" x="0"/>
+        <item h="1" x="2"/>
+        <item x="3"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0" sortType="ascending">
+      <items count="12">
+        <item h="1" x="0"/>
+        <item x="6"/>
+        <item x="10"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="4"/>
+        <item x="8"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="33"/>
+  </rowFields>
+  <rowItems count="1">
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="1"/>
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i t="grand">
+      <x/>
+    </i>
+    <i t="grand" i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="30" hier="-1"/>
+    <pageField fld="4" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="Count" fld="13" subtotal="count" baseField="26" baseItem="0"/>
+    <dataField name="SPs" fld="13" baseField="26" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
+  <location ref="A41:B43" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="40">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="47">
+        <item h="1" x="0"/>
+        <item h="1" x="41"/>
+        <item h="1" x="39"/>
+        <item h="1" x="43"/>
+        <item h="1" x="45"/>
+        <item h="1" x="36"/>
+        <item h="1" x="42"/>
+        <item h="1" x="38"/>
+        <item h="1" x="37"/>
+        <item h="1" x="40"/>
+        <item h="1" x="44"/>
+        <item h="1" x="8"/>
+        <item h="1" x="3"/>
+        <item h="1" x="9"/>
+        <item h="1" x="7"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item h="1" x="5"/>
+        <item h="1" x="4"/>
+        <item h="1" x="22"/>
+        <item x="15"/>
+        <item x="18"/>
+        <item h="1" x="16"/>
+        <item x="13"/>
+        <item x="17"/>
+        <item x="10"/>
+        <item x="19"/>
+        <item x="12"/>
+        <item x="20"/>
+        <item x="11"/>
+        <item x="14"/>
+        <item x="21"/>
+        <item h="1" x="35"/>
+        <item x="28"/>
+        <item x="31"/>
+        <item h="1" x="29"/>
+        <item x="26"/>
+        <item x="30"/>
+        <item x="23"/>
+        <item x="32"/>
+        <item x="25"/>
+        <item x="33"/>
+        <item x="24"/>
+        <item x="27"/>
+        <item x="34"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="5">
+        <item h="1" x="0"/>
+        <item h="1" x="2"/>
+        <item x="3"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0" sortType="ascending">
+      <items count="12">
+        <item h="1" x="0"/>
+        <item x="6"/>
+        <item h="1" x="10"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="4"/>
+        <item h="1" x="8"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="33"/>
+  </rowFields>
+  <rowItems count="1">
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="1">
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="30" hier="-1"/>
+    <pageField fld="4" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Different Story Points" fld="36" baseField="26" baseItem="1"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
   <location ref="D5:E17" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="40">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -9149,8 +9518,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="42" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
   <location ref="A5:B17" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="40">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -9338,8 +9707,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="42" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
   <location ref="J5:L15" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="40">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -9520,8 +9889,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable7" cacheId="42" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable7" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
   <location ref="G41:H43" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="40">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -9684,341 +10053,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="42" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
-  <location ref="A24:C27" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="40">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item h="1" x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="47">
-        <item h="1" x="0"/>
-        <item h="1" x="41"/>
-        <item h="1" x="39"/>
-        <item h="1" x="43"/>
-        <item h="1" x="45"/>
-        <item h="1" x="36"/>
-        <item h="1" x="42"/>
-        <item h="1" x="38"/>
-        <item h="1" x="37"/>
-        <item h="1" x="40"/>
-        <item h="1" x="44"/>
-        <item h="1" x="8"/>
-        <item h="1" x="3"/>
-        <item h="1" x="9"/>
-        <item h="1" x="7"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item h="1" x="5"/>
-        <item h="1" x="4"/>
-        <item h="1" x="22"/>
-        <item h="1" x="15"/>
-        <item h="1" x="18"/>
-        <item h="1" x="16"/>
-        <item h="1" x="13"/>
-        <item h="1" x="17"/>
-        <item h="1" x="10"/>
-        <item h="1" x="19"/>
-        <item x="12"/>
-        <item h="1" x="20"/>
-        <item h="1" x="11"/>
-        <item h="1" x="14"/>
-        <item h="1" x="21"/>
-        <item h="1" x="35"/>
-        <item h="1" x="28"/>
-        <item h="1" x="31"/>
-        <item h="1" x="29"/>
-        <item h="1" x="26"/>
-        <item h="1" x="30"/>
-        <item h="1" x="23"/>
-        <item h="1" x="32"/>
-        <item x="25"/>
-        <item h="1" x="33"/>
-        <item h="1" x="24"/>
-        <item h="1" x="27"/>
-        <item h="1" x="34"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="5">
-        <item h="1" x="0"/>
-        <item h="1" x="2"/>
-        <item x="3"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0" sortType="ascending">
-      <items count="12">
-        <item h="1" x="0"/>
-        <item x="6"/>
-        <item x="10"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="9"/>
-        <item x="4"/>
-        <item x="8"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="33"/>
-  </rowFields>
-  <rowItems count="1">
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="2">
-    <field x="1"/>
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i t="grand">
-      <x/>
-    </i>
-    <i t="grand" i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="30" hier="-1"/>
-    <pageField fld="4" hier="-1"/>
-  </pageFields>
-  <dataFields count="2">
-    <dataField name="Count" fld="13" subtotal="count" baseField="26" baseItem="0"/>
-    <dataField name="SPs" fld="13" baseField="26" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="42" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
-  <location ref="A41:B43" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="40">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="47">
-        <item h="1" x="0"/>
-        <item h="1" x="41"/>
-        <item h="1" x="39"/>
-        <item h="1" x="43"/>
-        <item h="1" x="45"/>
-        <item h="1" x="36"/>
-        <item h="1" x="42"/>
-        <item h="1" x="38"/>
-        <item h="1" x="37"/>
-        <item h="1" x="40"/>
-        <item h="1" x="44"/>
-        <item h="1" x="8"/>
-        <item h="1" x="3"/>
-        <item h="1" x="9"/>
-        <item h="1" x="7"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item h="1" x="5"/>
-        <item h="1" x="4"/>
-        <item h="1" x="22"/>
-        <item x="15"/>
-        <item x="18"/>
-        <item h="1" x="16"/>
-        <item x="13"/>
-        <item x="17"/>
-        <item x="10"/>
-        <item x="19"/>
-        <item x="12"/>
-        <item x="20"/>
-        <item x="11"/>
-        <item x="14"/>
-        <item x="21"/>
-        <item h="1" x="35"/>
-        <item x="28"/>
-        <item x="31"/>
-        <item h="1" x="29"/>
-        <item x="26"/>
-        <item x="30"/>
-        <item x="23"/>
-        <item x="32"/>
-        <item x="25"/>
-        <item x="33"/>
-        <item x="24"/>
-        <item x="27"/>
-        <item x="34"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="5">
-        <item h="1" x="0"/>
-        <item h="1" x="2"/>
-        <item x="3"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0" sortType="ascending">
-      <items count="12">
-        <item h="1" x="0"/>
-        <item x="6"/>
-        <item h="1" x="10"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="9"/>
-        <item x="4"/>
-        <item h="1" x="8"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="33"/>
-  </rowFields>
-  <rowItems count="1">
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="1"/>
-  </colFields>
-  <colItems count="1">
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="30" hier="-1"/>
-    <pageField fld="4" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Different Story Points" fld="36" baseField="26" baseItem="1"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="42" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" missingCaption="0" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Component">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" missingCaption="0" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Component">
   <location ref="A5:C8" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="40">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -10642,14 +10678,14 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
-      <pivotSelection pane="bottomRight" activeRow="1" previousRow="1" click="1" r:id="rId2">
+      <pivotSelection pane="bottomRight" activeRow="1" previousRow="1" click="1" r:id="rId4">
         <pivotArea field="30" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="0"/>
       </pivotSelection>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.46484375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.86328125" bestFit="1" customWidth="1"/>
@@ -12974,98 +13010,86 @@
       <c r="C12" s="44">
         <v>43312</v>
       </c>
-      <c r="D12" s="41" t="e">
-        <f>GETPIVOTDATA("Epic Total Estimate", Features!$A$5, "Type", "Epic")</f>
-        <v>#REF!</v>
+      <c r="D12" s="41">
+        <v>2306.5</v>
       </c>
       <c r="E12" s="48">
         <v>2350</v>
       </c>
-      <c r="F12" s="42" t="e">
-        <f>GETPIVOTDATA("Stories Estimate", Features!$A$5, "Type", "Epic")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G12" s="42" t="e">
-        <f>GETPIVOTDATA("Epic Decomposed", Features!$A$5, "Type", "Epic")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H12" s="42" t="e">
+      <c r="F12" s="42">
+        <v>2212</v>
+      </c>
+      <c r="G12" s="42">
+        <v>1865.5</v>
+      </c>
+      <c r="H12" s="42">
         <f t="shared" si="54"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I12" s="42" t="e">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", Features!$A$5, "Type", "Epic")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J12" s="21" t="e">
+        <v>1513.5</v>
+      </c>
+      <c r="I12" s="42">
+        <v>793</v>
+      </c>
+      <c r="J12" s="21">
         <f t="shared" ref="J12" si="63" xml:space="preserve"> G12/D12</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K12" s="21" t="e">
+        <v>0.80880121396054627</v>
+      </c>
+      <c r="K12" s="21">
         <f t="shared" ref="K12" si="64" xml:space="preserve"> H12/D12</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L12" s="43" t="e">
-        <f>GETPIVOTDATA("Epic Total Estimate", Features!$A$5, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
-        <v>#REF!</v>
+        <v>0.65618903099934967</v>
+      </c>
+      <c r="L12" s="43">
+        <v>1077</v>
       </c>
       <c r="M12" s="48">
         <v>1400</v>
       </c>
-      <c r="N12" s="42" t="e">
-        <f>GETPIVOTDATA("Stories Estimate", Features!$A$5, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O12" s="42" t="e">
-        <f>GETPIVOTDATA("Epic Decomposed", Features!$A$5, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P12" s="42" t="e">
+      <c r="N12" s="42">
+        <v>1053.5</v>
+      </c>
+      <c r="O12" s="42">
+        <v>827.5</v>
+      </c>
+      <c r="P12" s="42">
         <f t="shared" ref="P12" si="65">L12-Q12</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q12" s="42" t="e">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", Features!$A$5, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="R12" s="21" t="e">
+        <v>675.5</v>
+      </c>
+      <c r="Q12" s="42">
+        <v>401.5</v>
+      </c>
+      <c r="R12" s="21">
         <f t="shared" ref="R12" si="66" xml:space="preserve"> O12/L12</f>
-        <v>#REF!</v>
-      </c>
-      <c r="S12" s="21" t="e">
+        <v>0.76833797585886721</v>
+      </c>
+      <c r="S12" s="21">
         <f t="shared" ref="S12" si="67" xml:space="preserve"> P12/L12</f>
-        <v>#REF!</v>
-      </c>
-      <c r="T12" s="41" t="e">
-        <f>GETPIVOTDATA("Epic Total Estimate", Features!$A$5, "Type", "Epic", "ST:Components", "Artifact List")</f>
-        <v>#REF!</v>
+        <v>0.627205199628598</v>
+      </c>
+      <c r="T12" s="41">
+        <v>872.5</v>
       </c>
       <c r="U12" s="48">
         <v>675</v>
       </c>
-      <c r="V12" s="42" t="e">
-        <f>GETPIVOTDATA("Stories Estimate", Features!$A$5, "Type", "Epic", "ST:Components", "Artifact List")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="W12" s="42" t="e">
-        <f>GETPIVOTDATA("Epic Decomposed", Features!$A$5, "Type", "Epic", "ST:Components", "Artifact List")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="X12" s="42" t="e">
+      <c r="V12" s="42">
+        <v>822.5</v>
+      </c>
+      <c r="W12" s="42">
+        <v>751.5</v>
+      </c>
+      <c r="X12" s="42">
         <f t="shared" ref="X12" si="68">T12-Y12</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Y12" s="42" t="e">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", Features!$A$5, "Type", "Epic", "ST:Components", "Artifact List")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Z12" s="21" t="e">
+        <v>615.5</v>
+      </c>
+      <c r="Y12" s="42">
+        <v>257</v>
+      </c>
+      <c r="Z12" s="21">
         <f t="shared" ref="Z12" si="69" xml:space="preserve"> W12/T12</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AA12" s="21" t="e">
+        <v>0.86131805157593122</v>
+      </c>
+      <c r="AA12" s="21">
         <f t="shared" ref="AA12" si="70">X12/T12</f>
-        <v>#REF!</v>
+        <v>0.70544412607449858</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.45">
@@ -13078,14 +13102,98 @@
       <c r="C13" s="44">
         <v>43326</v>
       </c>
+      <c r="D13" s="41" t="e">
+        <f>GETPIVOTDATA("Epic Total Estimate", Features!$A$5, "Type", "Epic")</f>
+        <v>#REF!</v>
+      </c>
       <c r="E13" s="48">
         <v>2350</v>
       </c>
+      <c r="F13" s="42" t="e">
+        <f>GETPIVOTDATA("Stories Estimate", Features!$A$5, "Type", "Epic")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G13" s="42" t="e">
+        <f>GETPIVOTDATA("Epic Decomposed", Features!$A$5, "Type", "Epic")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H13" s="42" t="e">
+        <f t="shared" ref="H13" si="71">D13-I13</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I13" s="42" t="e">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", Features!$A$5, "Type", "Epic")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J13" s="21" t="e">
+        <f t="shared" ref="J13" si="72" xml:space="preserve"> G13/D13</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K13" s="21" t="e">
+        <f t="shared" ref="K13" si="73" xml:space="preserve"> H13/D13</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L13" s="43" t="e">
+        <f>GETPIVOTDATA("Epic Total Estimate", Features!$A$5, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
+        <v>#REF!</v>
+      </c>
       <c r="M13" s="48">
         <v>1400</v>
       </c>
+      <c r="N13" s="42" t="e">
+        <f>GETPIVOTDATA("Stories Estimate", Features!$A$5, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O13" s="42" t="e">
+        <f>GETPIVOTDATA("Epic Decomposed", Features!$A$5, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P13" s="42" t="e">
+        <f t="shared" ref="P13" si="74">L13-Q13</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q13" s="42" t="e">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", Features!$A$5, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="R13" s="21" t="e">
+        <f t="shared" ref="R13" si="75" xml:space="preserve"> O13/L13</f>
+        <v>#REF!</v>
+      </c>
+      <c r="S13" s="21" t="e">
+        <f t="shared" ref="S13" si="76" xml:space="preserve"> P13/L13</f>
+        <v>#REF!</v>
+      </c>
+      <c r="T13" s="41" t="e">
+        <f>GETPIVOTDATA("Epic Total Estimate", Features!$A$5, "Type", "Epic", "ST:Components", "Artifact List")</f>
+        <v>#REF!</v>
+      </c>
       <c r="U13" s="48">
         <v>675</v>
+      </c>
+      <c r="V13" s="42" t="e">
+        <f>GETPIVOTDATA("Stories Estimate", Features!$A$5, "Type", "Epic", "ST:Components", "Artifact List")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="W13" s="42" t="e">
+        <f>GETPIVOTDATA("Epic Decomposed", Features!$A$5, "Type", "Epic", "ST:Components", "Artifact List")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="X13" s="42" t="e">
+        <f t="shared" ref="X13" si="77">T13-Y13</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Y13" s="42" t="e">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", Features!$A$5, "Type", "Epic", "ST:Components", "Artifact List")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Z13" s="21" t="e">
+        <f t="shared" ref="Z13" si="78" xml:space="preserve"> W13/T13</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AA13" s="21" t="e">
+        <f t="shared" ref="AA13" si="79">X13/T13</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.45">

--- a/blueprint-jira-better-excel/Quasar-Issues.xlsx
+++ b/blueprint-jira-better-excel/Quasar-Issues.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\etc\blueprint-jira-better-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:180000_{FF509376-6139-48DD-861A-2FE3772036A9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="8715" tabRatio="688" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="8715" tabRatio="688" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="6" r:id="rId1"/>
@@ -23,9 +24,9 @@
   <definedNames>
     <definedName name="issues">OFFSET(Issues!$A$1,0,0,COUNTA(Issues!$A$1:$A$9999),COUNTA(Issues!$A$1:$AAH$1)-1)</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <pivotCaches>
-    <pivotCache cacheId="19" r:id="rId8"/>
+    <pivotCache cacheId="9" r:id="rId8"/>
   </pivotCaches>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
@@ -1072,7 +1073,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
@@ -1731,6 +1732,9 @@
                   <c:v>2306.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>2432.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1855,6 +1859,9 @@
                   <c:v>2212</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>2284.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1981,6 +1988,9 @@
                   <c:v>1865.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>2016.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2105,6 +2115,9 @@
                   <c:v>1513.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>1707</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2456,49 +2469,49 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>2350</c:v>
+                  <c:v>2380</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2350</c:v>
+                  <c:v>2380</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2350</c:v>
+                  <c:v>2380</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2350</c:v>
+                  <c:v>2380</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2350</c:v>
+                  <c:v>2380</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2350</c:v>
+                  <c:v>2380</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2350</c:v>
+                  <c:v>2380</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2350</c:v>
+                  <c:v>2380</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2350</c:v>
+                  <c:v>2380</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2350</c:v>
+                  <c:v>2380</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2350</c:v>
+                  <c:v>2380</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2350</c:v>
+                  <c:v>2380</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2350</c:v>
+                  <c:v>2380</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2350</c:v>
+                  <c:v>2380</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2350</c:v>
+                  <c:v>2380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2899,6 +2912,9 @@
                   <c:v>1077</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>1086.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3023,6 +3039,9 @@
                   <c:v>1053.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>1064.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3149,6 +3168,9 @@
                   <c:v>827.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>885</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3273,6 +3295,9 @@
                   <c:v>675.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>776.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4071,6 +4096,9 @@
                   <c:v>872.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>944</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4195,6 +4223,9 @@
                   <c:v>822.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>874</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4321,6 +4352,9 @@
                   <c:v>751.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>822.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4445,6 +4479,9 @@
                   <c:v>615.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>693.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4796,49 +4833,49 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>675</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>675</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>675</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>675</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>675</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>675</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>675</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>675</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>675</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>675</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>675</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>675</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>675</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>675</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>675</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6793,7 +6830,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43313.616298263885" missingItemsLimit="0" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="46">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43327.352745138887" missingItemsLimit="0" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="46" xr:uid="{00000000-000A-0000-FFFF-FFFF13000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="issues"/>
   </cacheSource>
@@ -7024,7 +7061,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="46">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="46">
   <r>
     <s v="&lt;jt:forEach items=&quot;${issues}&quot; var=&quot;issue&quot;&gt;&lt;jt:hyperlink address=&quot;${requestContext.canonicalBaseUrl}/browse/${issue.key}&quot; value=&quot;${issue.key}&quot;/&gt;"/>
     <x v="0"/>
@@ -8823,7 +8860,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
   <location ref="A5:C6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="40">
     <pivotField dataField="1" subtotalTop="0" showAll="0"/>
@@ -8949,7 +8986,7 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="2">
     <field x="33"/>
@@ -8992,177 +9029,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
-  <location ref="A24:C27" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="40">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item h="1" x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="47">
-        <item h="1" x="0"/>
-        <item h="1" x="41"/>
-        <item h="1" x="39"/>
-        <item h="1" x="43"/>
-        <item h="1" x="45"/>
-        <item h="1" x="36"/>
-        <item h="1" x="42"/>
-        <item h="1" x="38"/>
-        <item h="1" x="37"/>
-        <item h="1" x="40"/>
-        <item h="1" x="44"/>
-        <item h="1" x="8"/>
-        <item h="1" x="3"/>
-        <item h="1" x="9"/>
-        <item h="1" x="7"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item h="1" x="5"/>
-        <item h="1" x="4"/>
-        <item h="1" x="22"/>
-        <item h="1" x="15"/>
-        <item h="1" x="18"/>
-        <item h="1" x="16"/>
-        <item h="1" x="13"/>
-        <item h="1" x="17"/>
-        <item h="1" x="10"/>
-        <item h="1" x="19"/>
-        <item x="12"/>
-        <item h="1" x="20"/>
-        <item h="1" x="11"/>
-        <item h="1" x="14"/>
-        <item h="1" x="21"/>
-        <item h="1" x="35"/>
-        <item h="1" x="28"/>
-        <item h="1" x="31"/>
-        <item h="1" x="29"/>
-        <item h="1" x="26"/>
-        <item h="1" x="30"/>
-        <item h="1" x="23"/>
-        <item h="1" x="32"/>
-        <item x="25"/>
-        <item h="1" x="33"/>
-        <item h="1" x="24"/>
-        <item h="1" x="27"/>
-        <item h="1" x="34"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="5">
-        <item h="1" x="0"/>
-        <item h="1" x="2"/>
-        <item x="3"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0" sortType="ascending">
-      <items count="12">
-        <item h="1" x="0"/>
-        <item x="6"/>
-        <item x="10"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="9"/>
-        <item x="4"/>
-        <item x="8"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="33"/>
-  </rowFields>
-  <rowItems count="1">
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="2">
-    <field x="1"/>
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i t="grand">
-      <x/>
-    </i>
-    <i t="grand" i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="30" hier="-1"/>
-    <pageField fld="4" hier="-1"/>
-  </pageFields>
-  <dataFields count="2">
-    <dataField name="Count" fld="13" subtotal="count" baseField="26" baseItem="0"/>
-    <dataField name="SPs" fld="13" baseField="26" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
-  <location ref="A41:B43" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000003000000}" name="PivotTable4" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
+  <location ref="D5:E17" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="40">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisCol" subtotalTop="0" showAll="0">
@@ -9238,170 +9106,6 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="5">
-        <item h="1" x="0"/>
-        <item h="1" x="2"/>
-        <item x="3"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0" sortType="ascending">
-      <items count="12">
-        <item h="1" x="0"/>
-        <item x="6"/>
-        <item h="1" x="10"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="9"/>
-        <item x="4"/>
-        <item h="1" x="8"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="33"/>
-  </rowFields>
-  <rowItems count="1">
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="1"/>
-  </colFields>
-  <colItems count="1">
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="30" hier="-1"/>
-    <pageField fld="4" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Different Story Points" fld="36" baseField="26" baseItem="1"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
-  <location ref="D5:E17" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="40">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="47">
-        <item h="1" x="0"/>
-        <item h="1" x="41"/>
-        <item h="1" x="39"/>
-        <item h="1" x="43"/>
-        <item h="1" x="45"/>
-        <item h="1" x="36"/>
-        <item h="1" x="42"/>
-        <item h="1" x="38"/>
-        <item h="1" x="37"/>
-        <item h="1" x="40"/>
-        <item h="1" x="44"/>
-        <item h="1" x="8"/>
-        <item h="1" x="3"/>
-        <item h="1" x="9"/>
-        <item h="1" x="7"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item h="1" x="5"/>
-        <item h="1" x="4"/>
-        <item h="1" x="22"/>
-        <item x="15"/>
-        <item x="18"/>
-        <item h="1" x="16"/>
-        <item x="13"/>
-        <item x="17"/>
-        <item x="10"/>
-        <item x="19"/>
-        <item x="12"/>
-        <item x="20"/>
-        <item x="11"/>
-        <item x="14"/>
-        <item x="21"/>
-        <item h="1" x="35"/>
-        <item x="28"/>
-        <item x="31"/>
-        <item h="1" x="29"/>
-        <item x="26"/>
-        <item x="30"/>
-        <item x="23"/>
-        <item x="32"/>
-        <item x="25"/>
-        <item x="33"/>
-        <item x="24"/>
-        <item x="27"/>
-        <item x="34"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
     <pivotField dataField="1" subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
@@ -9450,8 +9154,8 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="33"/>
@@ -9518,8 +9222,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
   <location ref="A5:B17" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="40">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -9643,9 +9347,9 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="33"/>
@@ -9707,8 +9411,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000002000000}" name="PivotTable3" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
   <location ref="J5:L15" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="40">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -9833,8 +9537,8 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="33"/>
@@ -9889,8 +9593,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable7" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000005000000}" name="PivotTable7" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
   <location ref="G41:H43" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="40">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -10016,7 +9720,7 @@
     <pivotField dataField="1" subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="34"/>
@@ -10053,8 +9757,341 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="PivotTable2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
+  <location ref="A24:C27" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="40">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item h="1" x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="47">
+        <item h="1" x="0"/>
+        <item h="1" x="41"/>
+        <item h="1" x="39"/>
+        <item h="1" x="43"/>
+        <item h="1" x="45"/>
+        <item h="1" x="36"/>
+        <item h="1" x="42"/>
+        <item h="1" x="38"/>
+        <item h="1" x="37"/>
+        <item h="1" x="40"/>
+        <item h="1" x="44"/>
+        <item h="1" x="8"/>
+        <item h="1" x="3"/>
+        <item h="1" x="9"/>
+        <item h="1" x="7"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item h="1" x="5"/>
+        <item h="1" x="4"/>
+        <item h="1" x="22"/>
+        <item h="1" x="15"/>
+        <item h="1" x="18"/>
+        <item h="1" x="16"/>
+        <item h="1" x="13"/>
+        <item h="1" x="17"/>
+        <item h="1" x="10"/>
+        <item h="1" x="19"/>
+        <item x="12"/>
+        <item h="1" x="20"/>
+        <item h="1" x="11"/>
+        <item h="1" x="14"/>
+        <item h="1" x="21"/>
+        <item h="1" x="35"/>
+        <item h="1" x="28"/>
+        <item h="1" x="31"/>
+        <item h="1" x="29"/>
+        <item h="1" x="26"/>
+        <item h="1" x="30"/>
+        <item h="1" x="23"/>
+        <item h="1" x="32"/>
+        <item x="25"/>
+        <item h="1" x="33"/>
+        <item h="1" x="24"/>
+        <item h="1" x="27"/>
+        <item h="1" x="34"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="5">
+        <item h="1" x="0"/>
+        <item h="1" x="2"/>
+        <item x="3"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0" sortType="ascending">
+      <items count="12">
+        <item h="1" x="0"/>
+        <item x="6"/>
+        <item x="10"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="4"/>
+        <item x="8"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="33"/>
+  </rowFields>
+  <rowItems count="1">
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="1"/>
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i t="grand">
+      <x/>
+    </i>
+    <i t="grand" i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="30" hier="-1"/>
+    <pageField fld="4" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="Count" fld="13" subtotal="count" baseField="26" baseItem="0"/>
+    <dataField name="SPs" fld="13" baseField="26" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000004000000}" name="PivotTable5" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
+  <location ref="A41:B43" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="40">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="47">
+        <item h="1" x="0"/>
+        <item h="1" x="41"/>
+        <item h="1" x="39"/>
+        <item h="1" x="43"/>
+        <item h="1" x="45"/>
+        <item h="1" x="36"/>
+        <item h="1" x="42"/>
+        <item h="1" x="38"/>
+        <item h="1" x="37"/>
+        <item h="1" x="40"/>
+        <item h="1" x="44"/>
+        <item h="1" x="8"/>
+        <item h="1" x="3"/>
+        <item h="1" x="9"/>
+        <item h="1" x="7"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item h="1" x="5"/>
+        <item h="1" x="4"/>
+        <item h="1" x="22"/>
+        <item x="15"/>
+        <item x="18"/>
+        <item h="1" x="16"/>
+        <item x="13"/>
+        <item x="17"/>
+        <item x="10"/>
+        <item x="19"/>
+        <item x="12"/>
+        <item x="20"/>
+        <item x="11"/>
+        <item x="14"/>
+        <item x="21"/>
+        <item h="1" x="35"/>
+        <item x="28"/>
+        <item x="31"/>
+        <item h="1" x="29"/>
+        <item x="26"/>
+        <item x="30"/>
+        <item x="23"/>
+        <item x="32"/>
+        <item x="25"/>
+        <item x="33"/>
+        <item x="24"/>
+        <item x="27"/>
+        <item x="34"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="5">
+        <item h="1" x="0"/>
+        <item h="1" x="2"/>
+        <item x="3"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0" sortType="ascending">
+      <items count="12">
+        <item h="1" x="0"/>
+        <item x="6"/>
+        <item h="1" x="10"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="4"/>
+        <item h="1" x="8"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="33"/>
+  </rowFields>
+  <rowItems count="1">
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="1">
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="30" hier="-1"/>
+    <pageField fld="4" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Different Story Points" fld="36" baseField="26" baseItem="1"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" missingCaption="0" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Component">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" missingCaption="0" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Component">
   <location ref="A5:C8" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="40">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -10137,9 +10174,9 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="10"/>
@@ -10549,7 +10586,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -10612,7 +10649,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10673,19 +10710,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
-      <pivotSelection pane="bottomRight" activeRow="1" previousRow="1" click="1" r:id="rId4">
+      <pivotSelection pane="bottomRight" activeRow="1" previousRow="1" click="1" r:id="rId2">
         <pivotArea field="30" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="0"/>
       </pivotSelection>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="20.46484375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.86328125" bestFit="1" customWidth="1"/>
@@ -11076,9 +11113,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="Notes!1:1" display="Remaining Scope based on Epics - Estimate in Days (see Notes - 1)"/>
-    <hyperlink ref="D1" location="Notes!2:2" display="Remaining Scope based on Stories/Spikes/Tech Debts - Story Points (see Notes - 2)"/>
-    <hyperlink ref="J1" location="Notes!3:7" display="Remaining Scope based on Epics - Epic Remaining and Total Estimate (see Notes - 3)"/>
+    <hyperlink ref="A1" location="Notes!1:1" display="Remaining Scope based on Epics - Estimate in Days (see Notes - 1)" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="D1" location="Notes!2:2" display="Remaining Scope based on Stories/Spikes/Tech Debts - Story Points (see Notes - 2)" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="J1" location="Notes!3:7" display="Remaining Scope based on Epics - Epic Remaining and Total Estimate (see Notes - 3)" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId7"/>
@@ -11086,7 +11123,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -11146,7 +11183,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="Notes!8:10" display="Feature Decomposition and Development progress (see Notes - 4-6)"/>
+    <hyperlink ref="A1" location="Notes!8:10" display="Feature Decomposition and Development progress (see Notes - 4-6)" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -11154,7 +11191,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:AL57"/>
   <sheetViews>
@@ -12022,14 +12059,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AB18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:C1"/>
+      <selection pane="bottomRight" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -12192,7 +12229,7 @@
         <v>2023</v>
       </c>
       <c r="E3" s="48">
-        <v>2350</v>
+        <v>2380</v>
       </c>
       <c r="F3" s="42">
         <v>938.5</v>
@@ -12246,7 +12283,7 @@
         <v>575</v>
       </c>
       <c r="U3" s="48">
-        <v>675</v>
+        <v>700</v>
       </c>
       <c r="V3" s="42">
         <v>350</v>
@@ -12284,7 +12321,7 @@
         <v>2442</v>
       </c>
       <c r="E4" s="48">
-        <v>2350</v>
+        <v>2380</v>
       </c>
       <c r="F4" s="42">
         <v>1008</v>
@@ -12336,7 +12373,7 @@
         <v>696</v>
       </c>
       <c r="U4" s="48">
-        <v>675</v>
+        <v>700</v>
       </c>
       <c r="V4" s="42">
         <v>389</v>
@@ -12373,7 +12410,7 @@
         <v>2743.8</v>
       </c>
       <c r="E5" s="48">
-        <v>2350</v>
+        <v>2380</v>
       </c>
       <c r="F5" s="42">
         <v>2218.3000000000002</v>
@@ -12425,7 +12462,7 @@
         <v>645</v>
       </c>
       <c r="U5" s="48">
-        <v>675</v>
+        <v>700</v>
       </c>
       <c r="V5" s="42">
         <v>615</v>
@@ -12462,7 +12499,7 @@
         <v>2412</v>
       </c>
       <c r="E6" s="48">
-        <v>2350</v>
+        <v>2380</v>
       </c>
       <c r="F6" s="42">
         <v>2128.5</v>
@@ -12516,7 +12553,7 @@
         <v>665.5</v>
       </c>
       <c r="U6" s="48">
-        <v>675</v>
+        <v>700</v>
       </c>
       <c r="V6">
         <v>635.5</v>
@@ -12554,7 +12591,7 @@
         <v>2437.5</v>
       </c>
       <c r="E7" s="48">
-        <v>2350</v>
+        <v>2380</v>
       </c>
       <c r="F7" s="42">
         <v>2265</v>
@@ -12608,7 +12645,7 @@
         <v>734</v>
       </c>
       <c r="U7" s="48">
-        <v>675</v>
+        <v>700</v>
       </c>
       <c r="V7" s="42">
         <v>707</v>
@@ -12646,7 +12683,7 @@
         <v>2462.5</v>
       </c>
       <c r="E8" s="48">
-        <v>2350</v>
+        <v>2380</v>
       </c>
       <c r="F8" s="42">
         <v>2354.5</v>
@@ -12700,7 +12737,7 @@
         <v>763</v>
       </c>
       <c r="U8" s="48">
-        <v>675</v>
+        <v>700</v>
       </c>
       <c r="V8" s="42">
         <v>726</v>
@@ -12738,7 +12775,7 @@
         <v>2257</v>
       </c>
       <c r="E9" s="48">
-        <v>2350</v>
+        <v>2380</v>
       </c>
       <c r="F9" s="42">
         <v>2157.5</v>
@@ -12792,7 +12829,7 @@
         <v>764</v>
       </c>
       <c r="U9" s="48">
-        <v>675</v>
+        <v>700</v>
       </c>
       <c r="V9" s="42">
         <v>733</v>
@@ -12830,7 +12867,7 @@
         <v>2264.5</v>
       </c>
       <c r="E10" s="48">
-        <v>2350</v>
+        <v>2380</v>
       </c>
       <c r="F10" s="42">
         <v>2177</v>
@@ -12884,7 +12921,7 @@
         <v>777</v>
       </c>
       <c r="U10" s="48">
-        <v>675</v>
+        <v>700</v>
       </c>
       <c r="V10" s="42">
         <v>755</v>
@@ -12922,7 +12959,7 @@
         <v>2220.5</v>
       </c>
       <c r="E11" s="48">
-        <v>2350</v>
+        <v>2380</v>
       </c>
       <c r="F11" s="42">
         <v>2144</v>
@@ -12976,7 +13013,7 @@
         <v>787</v>
       </c>
       <c r="U11" s="48">
-        <v>675</v>
+        <v>700</v>
       </c>
       <c r="V11" s="42">
         <v>777</v>
@@ -13014,7 +13051,7 @@
         <v>2306.5</v>
       </c>
       <c r="E12" s="48">
-        <v>2350</v>
+        <v>2380</v>
       </c>
       <c r="F12" s="42">
         <v>2212</v>
@@ -13068,7 +13105,7 @@
         <v>872.5</v>
       </c>
       <c r="U12" s="48">
-        <v>675</v>
+        <v>700</v>
       </c>
       <c r="V12" s="42">
         <v>822.5</v>
@@ -13102,98 +13139,86 @@
       <c r="C13" s="44">
         <v>43326</v>
       </c>
-      <c r="D13" s="41" t="e">
-        <f>GETPIVOTDATA("Epic Total Estimate", Features!$A$5, "Type", "Epic")</f>
-        <v>#REF!</v>
+      <c r="D13" s="41">
+        <v>2432.5</v>
       </c>
       <c r="E13" s="48">
-        <v>2350</v>
-      </c>
-      <c r="F13" s="42" t="e">
-        <f>GETPIVOTDATA("Stories Estimate", Features!$A$5, "Type", "Epic")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G13" s="42" t="e">
-        <f>GETPIVOTDATA("Epic Decomposed", Features!$A$5, "Type", "Epic")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H13" s="42" t="e">
+        <v>2380</v>
+      </c>
+      <c r="F13" s="42">
+        <v>2284.5</v>
+      </c>
+      <c r="G13" s="42">
+        <v>2016.5</v>
+      </c>
+      <c r="H13" s="42">
         <f t="shared" ref="H13" si="71">D13-I13</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I13" s="42" t="e">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", Features!$A$5, "Type", "Epic")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J13" s="21" t="e">
+        <v>1707</v>
+      </c>
+      <c r="I13" s="42">
+        <v>725.5</v>
+      </c>
+      <c r="J13" s="21">
         <f t="shared" ref="J13" si="72" xml:space="preserve"> G13/D13</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K13" s="21" t="e">
+        <v>0.82898252826310381</v>
+      </c>
+      <c r="K13" s="21">
         <f t="shared" ref="K13" si="73" xml:space="preserve"> H13/D13</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L13" s="43" t="e">
-        <f>GETPIVOTDATA("Epic Total Estimate", Features!$A$5, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
-        <v>#REF!</v>
+        <v>0.7017471736896197</v>
+      </c>
+      <c r="L13" s="43">
+        <v>1086.5</v>
       </c>
       <c r="M13" s="48">
         <v>1400</v>
       </c>
-      <c r="N13" s="42" t="e">
-        <f>GETPIVOTDATA("Stories Estimate", Features!$A$5, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O13" s="42" t="e">
-        <f>GETPIVOTDATA("Epic Decomposed", Features!$A$5, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P13" s="42" t="e">
+      <c r="N13" s="42">
+        <v>1064.5</v>
+      </c>
+      <c r="O13" s="42">
+        <v>885</v>
+      </c>
+      <c r="P13" s="42">
         <f t="shared" ref="P13" si="74">L13-Q13</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q13" s="42" t="e">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", Features!$A$5, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="R13" s="21" t="e">
+        <v>776.5</v>
+      </c>
+      <c r="Q13" s="42">
+        <v>310</v>
+      </c>
+      <c r="R13" s="21">
         <f t="shared" ref="R13" si="75" xml:space="preserve"> O13/L13</f>
-        <v>#REF!</v>
-      </c>
-      <c r="S13" s="21" t="e">
+        <v>0.81454210768522783</v>
+      </c>
+      <c r="S13" s="21">
         <f t="shared" ref="S13" si="76" xml:space="preserve"> P13/L13</f>
-        <v>#REF!</v>
-      </c>
-      <c r="T13" s="41" t="e">
-        <f>GETPIVOTDATA("Epic Total Estimate", Features!$A$5, "Type", "Epic", "ST:Components", "Artifact List")</f>
-        <v>#REF!</v>
+        <v>0.71468016566958126</v>
+      </c>
+      <c r="T13" s="41">
+        <v>944</v>
       </c>
       <c r="U13" s="48">
-        <v>675</v>
-      </c>
-      <c r="V13" s="42" t="e">
-        <f>GETPIVOTDATA("Stories Estimate", Features!$A$5, "Type", "Epic", "ST:Components", "Artifact List")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="W13" s="42" t="e">
-        <f>GETPIVOTDATA("Epic Decomposed", Features!$A$5, "Type", "Epic", "ST:Components", "Artifact List")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="X13" s="42" t="e">
+        <v>700</v>
+      </c>
+      <c r="V13" s="42">
+        <v>874</v>
+      </c>
+      <c r="W13" s="42">
+        <v>822.5</v>
+      </c>
+      <c r="X13" s="42">
         <f t="shared" ref="X13" si="77">T13-Y13</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Y13" s="42" t="e">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", Features!$A$5, "Type", "Epic", "ST:Components", "Artifact List")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Z13" s="21" t="e">
+        <v>693.5</v>
+      </c>
+      <c r="Y13" s="42">
+        <v>250.5</v>
+      </c>
+      <c r="Z13" s="21">
         <f t="shared" ref="Z13" si="78" xml:space="preserve"> W13/T13</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AA13" s="21" t="e">
+        <v>0.87129237288135597</v>
+      </c>
+      <c r="AA13" s="21">
         <f t="shared" ref="AA13" si="79">X13/T13</f>
-        <v>#REF!</v>
+        <v>0.73463983050847459</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.45">
@@ -13206,14 +13231,98 @@
       <c r="C14" s="44">
         <v>43340</v>
       </c>
+      <c r="D14" s="41" t="e">
+        <f>GETPIVOTDATA("Epic Total Estimate", Features!$A$5, "Type", "Epic")</f>
+        <v>#REF!</v>
+      </c>
       <c r="E14" s="48">
-        <v>2350</v>
+        <v>2380</v>
+      </c>
+      <c r="F14" s="42" t="e">
+        <f>GETPIVOTDATA("Stories Estimate", Features!$A$5, "Type", "Epic")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G14" s="42" t="e">
+        <f>GETPIVOTDATA("Epic Decomposed", Features!$A$5, "Type", "Epic")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H14" s="42" t="e">
+        <f t="shared" ref="H14" si="80">D14-I14</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I14" s="42" t="e">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", Features!$A$5, "Type", "Epic")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J14" s="21" t="e">
+        <f t="shared" ref="J14" si="81" xml:space="preserve"> G14/D14</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K14" s="21" t="e">
+        <f t="shared" ref="K14" si="82" xml:space="preserve"> H14/D14</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L14" s="43" t="e">
+        <f>GETPIVOTDATA("Epic Total Estimate", Features!$A$5, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
+        <v>#REF!</v>
       </c>
       <c r="M14" s="48">
         <v>1400</v>
       </c>
+      <c r="N14" s="42" t="e">
+        <f>GETPIVOTDATA("Stories Estimate", Features!$A$5, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O14" s="42" t="e">
+        <f>GETPIVOTDATA("Epic Decomposed", Features!$A$5, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P14" s="42" t="e">
+        <f t="shared" ref="P14" si="83">L14-Q14</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q14" s="42" t="e">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", Features!$A$5, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="R14" s="21" t="e">
+        <f t="shared" ref="R14" si="84" xml:space="preserve"> O14/L14</f>
+        <v>#REF!</v>
+      </c>
+      <c r="S14" s="21" t="e">
+        <f t="shared" ref="S14" si="85" xml:space="preserve"> P14/L14</f>
+        <v>#REF!</v>
+      </c>
+      <c r="T14" s="41" t="e">
+        <f>GETPIVOTDATA("Epic Total Estimate", Features!$A$5, "Type", "Epic", "ST:Components", "Artifact List")</f>
+        <v>#REF!</v>
+      </c>
       <c r="U14" s="48">
-        <v>675</v>
+        <v>700</v>
+      </c>
+      <c r="V14" s="42" t="e">
+        <f>GETPIVOTDATA("Stories Estimate", Features!$A$5, "Type", "Epic", "ST:Components", "Artifact List")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="W14" s="42" t="e">
+        <f>GETPIVOTDATA("Epic Decomposed", Features!$A$5, "Type", "Epic", "ST:Components", "Artifact List")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="X14" s="42" t="e">
+        <f t="shared" ref="X14" si="86">T14-Y14</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Y14" s="42" t="e">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", Features!$A$5, "Type", "Epic", "ST:Components", "Artifact List")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Z14" s="21" t="e">
+        <f t="shared" ref="Z14" si="87" xml:space="preserve"> W14/T14</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AA14" s="21" t="e">
+        <f t="shared" ref="AA14" si="88">X14/T14</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.45">
@@ -13227,13 +13336,13 @@
         <v>43354</v>
       </c>
       <c r="E15" s="48">
-        <v>2350</v>
+        <v>2380</v>
       </c>
       <c r="M15" s="48">
         <v>1400</v>
       </c>
       <c r="U15" s="48">
-        <v>675</v>
+        <v>700</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.45">
@@ -13247,13 +13356,13 @@
         <v>43368</v>
       </c>
       <c r="E16" s="48">
-        <v>2350</v>
+        <v>2380</v>
       </c>
       <c r="M16" s="48">
         <v>1400</v>
       </c>
       <c r="U16" s="48">
-        <v>675</v>
+        <v>700</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.45">
@@ -13267,13 +13376,13 @@
         <v>43382</v>
       </c>
       <c r="E17" s="48">
-        <v>2350</v>
+        <v>2380</v>
       </c>
       <c r="M17" s="48">
         <v>1400</v>
       </c>
       <c r="U17" s="48">
-        <v>675</v>
+        <v>700</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.45">
@@ -13292,7 +13401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/blueprint-jira-better-excel/Quasar-Issues.xlsx
+++ b/blueprint-jira-better-excel/Quasar-Issues.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\etc\blueprint-jira-better-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:180000_{FF509376-6139-48DD-861A-2FE3772036A9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:180000_{B063F739-C481-4F80-8DA7-A77B1AF03BD6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="8715" tabRatio="688" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,18 +22,18 @@
     <sheet name="Progress Charts" sheetId="8" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="issues">OFFSET(Issues!$A$1,0,0,COUNTA(Issues!$A$1:$A$9999),COUNTA(Issues!$A$1:$AAH$1)-1)</definedName>
+    <definedName name="issues">OFFSET(Issues!$A$1,0,0,COUNTA(Issues!$A$1:$A$9999),COUNTA(Issues!$A$1:$AAI$1)-1)</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <pivotCaches>
-    <pivotCache cacheId="9" r:id="rId8"/>
+    <pivotCache cacheId="10" r:id="rId8"/>
   </pivotCaches>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="213">
   <si>
     <t>Status</t>
   </si>
@@ -423,9 +423,6 @@
   </si>
   <si>
     <t>&lt;/jt:forEach&gt;</t>
-  </si>
-  <si>
-    <t>$[IF(OR(B2="Bug", B2="Epic"),"",IF(D2=V2, 0, N2))]&lt;/jt:forEach&gt;</t>
   </si>
   <si>
     <t>Component</t>
@@ -1068,6 +1065,30 @@
   </si>
   <si>
     <t>Story Decomposition Progress</t>
+  </si>
+  <si>
+    <t>Backlog Health</t>
+  </si>
+  <si>
+    <t>$[IF(OR(B2="Bug", B2="Epic"),"",IF(D2=V2, 0, N2))]</t>
+  </si>
+  <si>
+    <t>Rocket</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>$[IF(OR(E2="Story: Ready",E2="Tech Debt: Ready",AND(B2="Spike",E2="Story: New")), "Yes", "No")]&lt;/jt:forEach&gt;</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>SPs</t>
   </si>
 </sst>
 </file>
@@ -6830,11 +6851,11 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43327.352745138887" missingItemsLimit="0" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="46" xr:uid="{00000000-000A-0000-FFFF-FFFF13000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43334.333140509261" missingItemsLimit="0" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="46" xr:uid="{00000000-000A-0000-FFFF-FFFF13000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="issues"/>
   </cacheSource>
-  <cacheFields count="40">
+  <cacheFields count="41">
     <cacheField name="Key" numFmtId="0">
       <sharedItems/>
     </cacheField>
@@ -6999,11 +7020,12 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Release" numFmtId="0">
-      <sharedItems containsBlank="1" count="4">
+      <sharedItems containsBlank="1" count="5">
         <s v="${issue.fixVersions.name}"/>
         <m/>
         <s v="Pegasus"/>
         <s v="Quasar"/>
+        <s v="Rocket"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Priority" numFmtId="0">
@@ -7047,6 +7069,14 @@
     </cacheField>
     <cacheField name="Different Story Points" numFmtId="0">
       <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Backlog Health" numFmtId="0">
+      <sharedItems containsBlank="1" count="4">
+        <s v="$[IF(OR(E2=&quot;Story: Ready&quot;,E2=&quot;Tech Debt: Ready&quot;,AND(B2=&quot;Spike&quot;,E2=&quot;Story: New&quot;)), &quot;Yes&quot;, &quot;No&quot;)]&lt;/jt:forEach&gt;"/>
+        <m/>
+        <s v="Yes"/>
+        <s v="No"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Component Progress" numFmtId="0" formula=" IFERROR(1 - SUM('Epic Remaining Estimate')/SUM('Epic Total Estimate'),1)" databaseField="0"/>
     <cacheField name="Component Decomposition Progress" numFmtId="0" formula=" IFERROR(SUM('Epic Decomposed')/SUM('Epic Total Estimate'),1)" databaseField="0"/>
@@ -7099,7 +7129,8 @@
     <x v="0"/>
     <x v="0"/>
     <s v="$[IF(B2=&quot;Epic&quot;, IF(AND(IFERROR(VALUE(P2), 0)&gt;0, P2=W2), &quot;Yes&quot;, &quot;No&quot;), &quot;&quot;)]"/>
-    <s v="$[IF(OR(B2=&quot;Bug&quot;, B2=&quot;Epic&quot;),&quot;&quot;,IF(D2=V2, 0, N2))]&lt;/jt:forEach&gt;"/>
+    <s v="$[IF(OR(B2=&quot;Bug&quot;, B2=&quot;Epic&quot;),&quot;&quot;,IF(D2=V2, 0, N2))]"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="&lt;jt:forEach items=&quot;${issues.subList(0, 0)}&quot; var=&quot;issue&quot; where=&quot;${issue.key = ''}&quot;&gt;"/>
@@ -7139,6 +7170,7 @@
     <x v="1"/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -7178,6 +7210,7 @@
     <x v="2"/>
     <m/>
     <m/>
+    <x v="2"/>
   </r>
   <r>
     <s v="key"/>
@@ -7217,6 +7250,7 @@
     <x v="3"/>
     <m/>
     <m/>
+    <x v="3"/>
   </r>
   <r>
     <s v="key"/>
@@ -7249,13 +7283,14 @@
     <m/>
     <m/>
     <m/>
-    <x v="1"/>
+    <x v="4"/>
     <m/>
     <m/>
     <x v="4"/>
     <x v="4"/>
     <m/>
     <m/>
+    <x v="2"/>
   </r>
   <r>
     <s v="key"/>
@@ -7295,6 +7330,7 @@
     <x v="5"/>
     <m/>
     <m/>
+    <x v="3"/>
   </r>
   <r>
     <s v="key"/>
@@ -7334,6 +7370,7 @@
     <x v="6"/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -7373,6 +7410,7 @@
     <x v="7"/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -7412,6 +7450,7 @@
     <x v="8"/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -7451,6 +7490,7 @@
     <x v="9"/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -7490,6 +7530,7 @@
     <x v="10"/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -7529,6 +7570,7 @@
     <x v="1"/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -7568,6 +7610,7 @@
     <x v="1"/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -7607,6 +7650,7 @@
     <x v="1"/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -7646,6 +7690,7 @@
     <x v="1"/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -7685,6 +7730,7 @@
     <x v="1"/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -7724,6 +7770,7 @@
     <x v="1"/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -7763,6 +7810,7 @@
     <x v="1"/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -7802,6 +7850,7 @@
     <x v="1"/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -7841,6 +7890,7 @@
     <x v="1"/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -7880,6 +7930,7 @@
     <x v="1"/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -7919,6 +7970,7 @@
     <x v="1"/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -7958,6 +8010,7 @@
     <x v="1"/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -7997,6 +8050,7 @@
     <x v="1"/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -8036,6 +8090,7 @@
     <x v="1"/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -8075,6 +8130,7 @@
     <x v="1"/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -8114,6 +8170,7 @@
     <x v="1"/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -8153,6 +8210,7 @@
     <x v="1"/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -8192,6 +8250,7 @@
     <x v="1"/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -8231,6 +8290,7 @@
     <x v="1"/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -8270,6 +8330,7 @@
     <x v="1"/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -8309,6 +8370,7 @@
     <x v="1"/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -8348,6 +8410,7 @@
     <x v="1"/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -8387,6 +8450,7 @@
     <x v="1"/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -8426,6 +8490,7 @@
     <x v="1"/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -8465,6 +8530,7 @@
     <x v="1"/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -8504,6 +8570,7 @@
     <x v="1"/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -8543,6 +8610,7 @@
     <x v="1"/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -8582,6 +8650,7 @@
     <x v="1"/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -8621,6 +8690,7 @@
     <x v="1"/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -8660,6 +8730,7 @@
     <x v="1"/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -8699,6 +8770,7 @@
     <x v="1"/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -8738,6 +8810,7 @@
     <x v="1"/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -8777,6 +8850,7 @@
     <x v="1"/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -8816,6 +8890,7 @@
     <x v="1"/>
     <m/>
     <m/>
+    <x v="1"/>
   </r>
   <r>
     <s v="key"/>
@@ -8855,14 +8930,15 @@
     <x v="1"/>
     <m/>
     <s v="&lt;/jt:forEach&gt;"/>
+    <x v="1"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable2" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
   <location ref="A5:C6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="40">
+  <pivotFields count="41">
     <pivotField dataField="1" subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
       <items count="8">
@@ -8955,11 +9031,12 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="5">
+      <items count="6">
         <item h="1" x="0"/>
         <item h="1" x="2"/>
         <item x="3"/>
         <item h="1" x="1"/>
+        <item h="1" x="4"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -8984,6 +9061,7 @@
     <pivotField subtotalTop="0" showAll="0" sortType="ascending"/>
     <pivotField showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
@@ -9029,9 +9107,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000003000000}" name="PivotTable4" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000003000000}" name="PivotTable4" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
   <location ref="D5:E17" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="40">
+  <pivotFields count="41">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisCol" subtotalTop="0" showAll="0">
       <items count="8">
@@ -9124,11 +9202,12 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="5">
+      <items count="6">
         <item h="1" x="0"/>
         <item h="1" x="2"/>
         <item x="3"/>
         <item h="1" x="1"/>
+        <item h="1" x="4"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -9150,6 +9229,7 @@
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -9223,9 +9303,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
   <location ref="A5:B17" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="40">
+  <pivotFields count="41">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisCol" subtotalTop="0" showAll="0">
       <items count="8">
@@ -9318,11 +9398,12 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="5">
+      <items count="6">
         <item h="1" x="0"/>
         <item h="1" x="2"/>
         <item x="3"/>
         <item h="1" x="1"/>
+        <item h="1" x="4"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -9344,6 +9425,7 @@
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -9412,9 +9494,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000002000000}" name="PivotTable3" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000002000000}" name="PivotTable3" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
   <location ref="J5:L15" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="40">
+  <pivotFields count="41">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisCol" subtotalTop="0" showAll="0">
       <items count="8">
@@ -9507,11 +9589,12 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="5">
+      <items count="6">
         <item h="1" x="0"/>
         <item h="1" x="2"/>
         <item x="3"/>
         <item h="1" x="1"/>
+        <item h="1" x="4"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -9533,6 +9616,7 @@
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -9594,9 +9678,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000005000000}" name="PivotTable7" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000005000000}" name="PivotTable7" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
   <location ref="G41:H43" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="40">
+  <pivotFields count="41">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisCol" subtotalTop="0" showAll="0">
       <items count="8">
@@ -9689,11 +9773,12 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="5">
+      <items count="6">
         <item h="1" x="0"/>
         <item h="1" x="2"/>
         <item x="3"/>
         <item h="1" x="1"/>
+        <item h="1" x="4"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -9718,6 +9803,7 @@
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
@@ -9758,16 +9844,16 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="PivotTable2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
-  <location ref="A24:C27" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="40">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="PivotTable2" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
+  <location ref="A24:E28" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="41">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisCol" subtotalTop="0" showAll="0">
       <items count="8">
         <item h="1" x="0"/>
         <item h="1" x="6"/>
         <item h="1" x="2"/>
-        <item h="1" x="4"/>
+        <item x="4"/>
         <item x="3"/>
         <item x="5"/>
         <item h="1" x="1"/>
@@ -9776,57 +9862,7 @@
     </pivotField>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="47">
-        <item h="1" x="0"/>
-        <item h="1" x="41"/>
-        <item h="1" x="39"/>
-        <item h="1" x="43"/>
-        <item h="1" x="45"/>
-        <item h="1" x="36"/>
-        <item h="1" x="42"/>
-        <item h="1" x="38"/>
-        <item h="1" x="37"/>
-        <item h="1" x="40"/>
-        <item h="1" x="44"/>
-        <item h="1" x="8"/>
-        <item h="1" x="3"/>
-        <item h="1" x="9"/>
-        <item h="1" x="7"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item h="1" x="5"/>
-        <item h="1" x="4"/>
-        <item h="1" x="22"/>
-        <item h="1" x="15"/>
-        <item h="1" x="18"/>
-        <item h="1" x="16"/>
-        <item h="1" x="13"/>
-        <item h="1" x="17"/>
-        <item h="1" x="10"/>
-        <item h="1" x="19"/>
-        <item x="12"/>
-        <item h="1" x="20"/>
-        <item h="1" x="11"/>
-        <item h="1" x="14"/>
-        <item h="1" x="21"/>
-        <item h="1" x="35"/>
-        <item h="1" x="28"/>
-        <item h="1" x="31"/>
-        <item h="1" x="29"/>
-        <item h="1" x="26"/>
-        <item h="1" x="30"/>
-        <item h="1" x="23"/>
-        <item h="1" x="32"/>
-        <item x="25"/>
-        <item h="1" x="33"/>
-        <item h="1" x="24"/>
-        <item h="1" x="27"/>
-        <item h="1" x="34"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
@@ -9853,11 +9889,12 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="5">
+      <items count="6">
         <item h="1" x="0"/>
         <item h="1" x="2"/>
         <item x="3"/>
         <item h="1" x="1"/>
+        <item x="4"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -9882,6 +9919,15 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
@@ -9889,7 +9935,10 @@
   <rowFields count="1">
     <field x="33"/>
   </rowFields>
-  <rowItems count="1">
+  <rowItems count="2">
+    <i>
+      <x v="6"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -9898,17 +9947,24 @@
     <field x="1"/>
     <field x="-2"/>
   </colFields>
-  <colItems count="2">
+  <colItems count="4">
+    <i>
+      <x v="3"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
     <i t="grand" i="1">
-      <x v="1"/>
+      <x/>
     </i>
   </colItems>
   <pageFields count="2">
     <pageField fld="30" hier="-1"/>
-    <pageField fld="4" hier="-1"/>
+    <pageField fld="37" item="1" hier="-1"/>
   </pageFields>
   <dataFields count="2">
     <dataField name="Count" fld="13" subtotal="count" baseField="26" baseItem="0"/>
@@ -9927,9 +9983,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000004000000}" name="PivotTable5" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000004000000}" name="PivotTable5" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
   <location ref="A41:B43" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="40">
+  <pivotFields count="41">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisCol" subtotalTop="0" showAll="0">
       <items count="8">
@@ -10022,11 +10078,12 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="5">
+      <items count="6">
         <item h="1" x="0"/>
         <item h="1" x="2"/>
         <item x="3"/>
         <item h="1" x="1"/>
+        <item h="1" x="4"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -10051,6 +10108,7 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
@@ -10091,9 +10149,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" missingCaption="0" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Component">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable2" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" missingCaption="0" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Component">
   <location ref="A5:C8" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="40">
+  <pivotFields count="41">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisCol" subtotalTop="0" showAll="0">
       <items count="8">
@@ -10160,16 +10218,18 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="5">
+      <items count="6">
         <item h="1" x="0"/>
         <item h="1" x="1"/>
         <item h="1" x="2"/>
         <item x="3"/>
+        <item h="1" x="4"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -10199,9 +10259,9 @@
     <dataField name="Story Estimate_x000a_(incl. Tech Debt &amp; Spikes)" fld="14" baseField="10" baseItem="1"/>
     <dataField name="Decomposed _x000a_(Ready, In Dev, Closed)" fld="22" baseField="10" baseItem="1"/>
     <dataField name="Remaining Estimate_x000a_(Not Closed/ Not Decomposed)" fld="16" baseField="10" baseItem="1"/>
-    <dataField name="Epic Decomposition Progress" fld="39" baseField="10" baseItem="0" numFmtId="9"/>
-    <dataField name="Story Decomposition Progress" fld="38" subtotal="count" baseField="10" baseItem="0"/>
-    <dataField name="Development Progress" fld="37" subtotal="count" baseField="10" baseItem="1" numFmtId="9"/>
+    <dataField name="Epic Decomposition Progress" fld="40" baseField="10" baseItem="0" numFmtId="9"/>
+    <dataField name="Story Decomposition Progress" fld="39" subtotal="count" baseField="10" baseItem="0"/>
+    <dataField name="Development Progress" fld="38" subtotal="count" baseField="10" baseItem="1" numFmtId="9"/>
   </dataFields>
   <formats count="5">
     <format dxfId="9">
@@ -10589,58 +10649,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" s="26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" s="27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" s="27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" s="29" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" s="30" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" s="27" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" s="27" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -10653,7 +10715,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -10665,17 +10727,17 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -10691,7 +10753,7 @@
         <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C5" t="s">
         <v>122</v>
@@ -10714,19 +10776,16 @@
   <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-      <pivotSelection pane="bottomRight" activeRow="1" previousRow="1" click="1" r:id="rId2">
-        <pivotArea field="30" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="0"/>
-      </pivotSelection>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.46484375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.86328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.46484375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.73046875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
@@ -10742,18 +10801,18 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" s="31" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B1" s="22"/>
       <c r="D1" s="31" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E1" s="22"/>
       <c r="F1" s="22"/>
       <c r="G1" s="22"/>
       <c r="H1" s="22"/>
       <c r="J1" s="31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K1" s="22"/>
       <c r="L1" s="22"/>
@@ -10761,22 +10820,22 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.45">
@@ -10841,7 +10900,7 @@
         <v>45</v>
       </c>
       <c r="M7" s="24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
@@ -10856,7 +10915,7 @@
         <v>60</v>
       </c>
       <c r="M8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.45">
@@ -10871,7 +10930,7 @@
         <v>58</v>
       </c>
       <c r="M9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
@@ -10886,7 +10945,7 @@
         <v>56</v>
       </c>
       <c r="M10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.45">
@@ -10901,7 +10960,7 @@
         <v>55</v>
       </c>
       <c r="M11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.45">
@@ -10916,7 +10975,7 @@
         <v>59</v>
       </c>
       <c r="M12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.45">
@@ -10931,7 +10990,7 @@
         <v>54</v>
       </c>
       <c r="M13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.45">
@@ -10946,7 +11005,7 @@
         <v>61</v>
       </c>
       <c r="M14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.45">
@@ -10985,7 +11044,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
@@ -10994,18 +11053,18 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B21" t="s">
-        <v>175</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="16" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="B22" t="s">
-        <v>75</v>
+        <v>208</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
@@ -11015,48 +11074,68 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" t="s">
+        <v>134</v>
+      </c>
+      <c r="E25" t="s">
         <v>135</v>
-      </c>
-      <c r="C25" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" s="16" t="s">
         <v>45</v>
       </c>
+      <c r="B26" t="s">
+        <v>211</v>
+      </c>
+      <c r="C26" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" s="17" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A28" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A37" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B37" s="22"/>
       <c r="C37" s="22"/>
       <c r="G37" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H37" s="22"/>
       <c r="I37" s="22"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B38" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G38" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H38" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.45">
@@ -11075,13 +11154,13 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A41" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B41" s="16" t="s">
         <v>50</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H41" s="16" t="s">
         <v>50</v>
@@ -11144,7 +11223,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="31" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -11152,10 +11231,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -11173,7 +11252,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
@@ -11193,7 +11272,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AL57"/>
+  <dimension ref="A1:AM57"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11238,10 +11317,11 @@
     <col min="35" max="35" width="18.86328125" style="5" customWidth="1"/>
     <col min="36" max="36" width="19.86328125" style="5" customWidth="1"/>
     <col min="37" max="37" width="18.796875" style="5" customWidth="1"/>
-    <col min="38" max="16384" width="9.1328125" style="3"/>
+    <col min="38" max="38" width="17.53125" style="5" customWidth="1"/>
+    <col min="39" max="16384" width="9.1328125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -11315,25 +11395,25 @@
         <v>21</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AD1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AE1" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="AF1" s="1" t="s">
         <v>43</v>
@@ -11348,16 +11428,19 @@
         <v>124</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AK1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AL1" s="3" t="s">
-        <v>197</v>
+      <c r="AL1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>196</v>
       </c>
     </row>
-    <row r="2" spans="1:38" s="5" customFormat="1" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:39" s="5" customFormat="1" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="s">
         <v>69</v>
       </c>
@@ -11431,25 +11514,25 @@
         <v>42</v>
       </c>
       <c r="Y2" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Z2" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AA2" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AB2" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AC2" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AD2" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AE2" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AF2" s="10" t="s">
         <v>46</v>
@@ -11464,21 +11547,24 @@
         <v>125</v>
       </c>
       <c r="AJ2" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AK2" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="AL2" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="AL2" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="AM2" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
         <v>53</v>
       </c>
@@ -11496,7 +11582,7 @@
       </c>
       <c r="W4" s="4"/>
       <c r="AE4" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AH4" s="4" t="s">
         <v>58</v>
@@ -11505,8 +11591,11 @@
         <v>58</v>
       </c>
       <c r="AJ4" s="4"/>
+      <c r="AL4" s="5" t="s">
+        <v>208</v>
+      </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
         <v>53</v>
       </c>
@@ -11526,7 +11615,7 @@
       </c>
       <c r="W5" s="4"/>
       <c r="AE5" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AH5" s="4" t="s">
         <v>56</v>
@@ -11535,8 +11624,11 @@
         <v>56</v>
       </c>
       <c r="AJ5" s="4"/>
+      <c r="AL5" s="5" t="s">
+        <v>209</v>
+      </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>53</v>
       </c>
@@ -11556,6 +11648,9 @@
         <v>59</v>
       </c>
       <c r="W6" s="4"/>
+      <c r="AE6" s="5" t="s">
+        <v>207</v>
+      </c>
       <c r="AH6" s="4" t="s">
         <v>59</v>
       </c>
@@ -11563,8 +11658,11 @@
         <v>59</v>
       </c>
       <c r="AJ6" s="4"/>
+      <c r="AL6" s="5" t="s">
+        <v>208</v>
+      </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
         <v>53</v>
       </c>
@@ -11588,8 +11686,11 @@
         <v>54</v>
       </c>
       <c r="AJ7" s="4"/>
+      <c r="AL7" s="5" t="s">
+        <v>209</v>
+      </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
         <v>53</v>
       </c>
@@ -11614,7 +11715,7 @@
       </c>
       <c r="AJ8" s="4"/>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
         <v>53</v>
       </c>
@@ -11637,7 +11738,7 @@
       </c>
       <c r="AJ9" s="4"/>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
         <v>53</v>
       </c>
@@ -11660,7 +11761,7 @@
       </c>
       <c r="AJ10" s="4"/>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
         <v>53</v>
       </c>
@@ -11683,7 +11784,7 @@
       </c>
       <c r="AJ11" s="4"/>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
         <v>53</v>
       </c>
@@ -11706,7 +11807,7 @@
       </c>
       <c r="AJ12" s="4"/>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
         <v>53</v>
       </c>
@@ -11725,7 +11826,7 @@
       <c r="AI13" s="4"/>
       <c r="AJ13" s="4"/>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
         <v>53</v>
       </c>
@@ -11744,7 +11845,7 @@
       <c r="AI14" s="4"/>
       <c r="AJ14" s="4"/>
     </row>
-    <row r="15" spans="1:38" ht="26.25" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:39" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
         <v>53</v>
       </c>
@@ -11763,7 +11864,7 @@
       <c r="AI15" s="4"/>
       <c r="AJ15" s="4"/>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
         <v>53</v>
       </c>
@@ -12105,7 +12206,7 @@
       <c r="B1" s="50"/>
       <c r="C1" s="50"/>
       <c r="D1" s="51" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E1" s="51"/>
       <c r="F1" s="51"/>
@@ -12115,7 +12216,7 @@
       <c r="J1" s="51"/>
       <c r="K1" s="51"/>
       <c r="L1" s="51" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="M1" s="51"/>
       <c r="N1" s="51"/>
@@ -12125,7 +12226,7 @@
       <c r="R1" s="51"/>
       <c r="S1" s="51"/>
       <c r="T1" s="51" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="U1" s="51"/>
       <c r="V1" s="51"/>
@@ -12137,91 +12238,91 @@
     </row>
     <row r="2" spans="1:28" s="32" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A2" s="49" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B2" s="49" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="49" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="49" t="s">
-        <v>160</v>
-      </c>
       <c r="D2" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E2" s="47" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F2" s="34" t="s">
         <v>127</v>
       </c>
       <c r="G2" s="34" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H2" s="34" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I2" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="J2" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="K2" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="L2" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="J2" s="34" t="s">
-        <v>205</v>
-      </c>
-      <c r="K2" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="L2" s="36" t="s">
-        <v>133</v>
-      </c>
       <c r="M2" s="47" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N2" s="34" t="s">
         <v>127</v>
       </c>
       <c r="O2" s="34" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P2" s="34" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q2" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="R2" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="S2" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="T2" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="R2" s="34" t="s">
-        <v>205</v>
-      </c>
-      <c r="S2" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="T2" s="38" t="s">
-        <v>133</v>
-      </c>
       <c r="U2" s="47" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V2" s="34" t="s">
         <v>127</v>
       </c>
       <c r="W2" s="34" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="X2" s="34" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Y2" s="34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Z2" s="34" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AA2" s="35" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AB2" s="40"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B3" s="33"/>
       <c r="C3" s="33"/>
@@ -12309,7 +12410,7 @@
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B4" s="44">
         <v>43194</v>
@@ -12398,7 +12499,7 @@
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B5" s="44">
         <v>43208</v>
@@ -12487,7 +12588,7 @@
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B6" s="44">
         <v>43222</v>
@@ -12579,7 +12680,7 @@
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B7" s="44">
         <v>43236</v>
@@ -12671,7 +12772,7 @@
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B8" s="44">
         <v>43250</v>
@@ -12763,7 +12864,7 @@
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B9" s="44">
         <v>43264</v>
@@ -12855,7 +12956,7 @@
     </row>
     <row r="10" spans="1:28" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B10" s="44">
         <v>43278</v>
@@ -12947,7 +13048,7 @@
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B11" s="44">
         <v>43292</v>
@@ -13039,7 +13140,7 @@
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B12" s="44">
         <v>43299</v>
@@ -13131,7 +13232,7 @@
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B13" s="44">
         <v>43313</v>
@@ -13223,7 +13324,7 @@
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B14" s="44">
         <v>43327</v>
@@ -13327,7 +13428,7 @@
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B15" s="44">
         <v>43341</v>
@@ -13347,7 +13448,7 @@
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B16" s="44">
         <v>43355</v>
@@ -13367,7 +13468,7 @@
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B17" s="46">
         <v>43369</v>

--- a/blueprint-jira-better-excel/Quasar-Issues.xlsx
+++ b/blueprint-jira-better-excel/Quasar-Issues.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\etc\blueprint-jira-better-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:180000_{B063F739-C481-4F80-8DA7-A77B1AF03BD6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:180000_{FA99E832-3077-4903-A66A-B9A78FF4F122}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="8715" tabRatio="688" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="212">
   <si>
     <t>Status</t>
   </si>
@@ -1079,16 +1079,13 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>$[IF(OR(E2="Story: Ready",E2="Tech Debt: Ready",AND(B2="Spike",E2="Story: New")), "Yes", "No")]&lt;/jt:forEach&gt;</t>
-  </si>
-  <si>
     <t>Count</t>
   </si>
   <si>
     <t>SPs</t>
+  </si>
+  <si>
+    <t>${bpHelper.isInBacklogHealth(issue)}&lt;/jt:forEach&gt;</t>
   </si>
 </sst>
 </file>
@@ -6851,7 +6848,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43334.333140509261" missingItemsLimit="0" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="46" xr:uid="{00000000-000A-0000-FFFF-FFFF13000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43334.694266087965" missingItemsLimit="0" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="46" xr:uid="{00000000-000A-0000-FFFF-FFFF13000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="issues"/>
   </cacheSource>
@@ -6969,7 +6966,7 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Story Points" numFmtId="0">
-      <sharedItems containsBlank="1"/>
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="5" maxValue="20"/>
     </cacheField>
     <cacheField name="Stories Estimate" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -7072,10 +7069,10 @@
     </cacheField>
     <cacheField name="Backlog Health" numFmtId="0">
       <sharedItems containsBlank="1" count="4">
-        <s v="$[IF(OR(E2=&quot;Story: Ready&quot;,E2=&quot;Tech Debt: Ready&quot;,AND(B2=&quot;Spike&quot;,E2=&quot;Story: New&quot;)), &quot;Yes&quot;, &quot;No&quot;)]&lt;/jt:forEach&gt;"/>
+        <s v="${bpHelper.isInBacklogHealth(issue)}&lt;/jt:forEach&gt;"/>
         <m/>
         <s v="Yes"/>
-        <s v="No"/>
+        <s v="&lt;/jt:forEach&gt;"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Component Progress" numFmtId="0" formula=" IFERROR(1 - SUM('Epic Remaining Estimate')/SUM('Epic Total Estimate'),1)" databaseField="0"/>
@@ -7226,7 +7223,7 @@
     <x v="1"/>
     <m/>
     <m/>
-    <m/>
+    <n v="5"/>
     <m/>
     <m/>
     <m/>
@@ -7250,7 +7247,7 @@
     <x v="3"/>
     <m/>
     <m/>
-    <x v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <s v="key"/>
@@ -7266,7 +7263,7 @@
     <x v="1"/>
     <m/>
     <m/>
-    <m/>
+    <n v="10"/>
     <m/>
     <m/>
     <m/>
@@ -7306,7 +7303,7 @@
     <x v="1"/>
     <m/>
     <m/>
-    <m/>
+    <n v="20"/>
     <m/>
     <m/>
     <m/>
@@ -7330,7 +7327,7 @@
     <x v="5"/>
     <m/>
     <m/>
-    <x v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <s v="key"/>
@@ -7370,7 +7367,7 @@
     <x v="6"/>
     <m/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
   </r>
   <r>
     <s v="key"/>
@@ -7410,7 +7407,7 @@
     <x v="7"/>
     <m/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
   </r>
   <r>
     <s v="key"/>
@@ -8929,8 +8926,8 @@
     <x v="1"/>
     <x v="1"/>
     <m/>
-    <s v="&lt;/jt:forEach&gt;"/>
-    <x v="1"/>
+    <m/>
+    <x v="3"/>
   </r>
 </pivotCacheRecords>
 </file>
@@ -9107,6 +9104,671 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000002000000}" name="PivotTable3" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
+  <location ref="J5:L15" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="41">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="47">
+        <item h="1" x="0"/>
+        <item h="1" x="41"/>
+        <item h="1" x="39"/>
+        <item h="1" x="43"/>
+        <item h="1" x="45"/>
+        <item h="1" x="36"/>
+        <item h="1" x="42"/>
+        <item h="1" x="38"/>
+        <item h="1" x="37"/>
+        <item h="1" x="40"/>
+        <item h="1" x="44"/>
+        <item h="1" x="8"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item h="1" x="22"/>
+        <item h="1" x="15"/>
+        <item h="1" x="18"/>
+        <item h="1" x="16"/>
+        <item h="1" x="13"/>
+        <item h="1" x="17"/>
+        <item h="1" x="10"/>
+        <item h="1" x="19"/>
+        <item h="1" x="12"/>
+        <item h="1" x="20"/>
+        <item h="1" x="11"/>
+        <item h="1" x="14"/>
+        <item h="1" x="21"/>
+        <item h="1" x="35"/>
+        <item h="1" x="28"/>
+        <item h="1" x="31"/>
+        <item h="1" x="29"/>
+        <item h="1" x="26"/>
+        <item h="1" x="30"/>
+        <item h="1" x="23"/>
+        <item h="1" x="32"/>
+        <item h="1" x="25"/>
+        <item h="1" x="33"/>
+        <item h="1" x="24"/>
+        <item h="1" x="27"/>
+        <item h="1" x="34"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="6">
+        <item h="1" x="0"/>
+        <item h="1" x="2"/>
+        <item x="3"/>
+        <item h="1" x="1"/>
+        <item h="1" x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" sortType="ascending">
+      <items count="12">
+        <item h="1" x="0"/>
+        <item x="6"/>
+        <item h="1" x="10"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="4"/>
+        <item h="1" x="8"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="33"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="1"/>
+    <field x="-2"/>
+  </colFields>
+  <pageFields count="2">
+    <pageField fld="30" hier="-1"/>
+    <pageField fld="4" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="3" baseItem="4"/>
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="3" baseItem="4"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000005000000}" name="PivotTable7" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
+  <location ref="G41:H43" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="41">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="47">
+        <item h="1" x="0"/>
+        <item h="1" x="41"/>
+        <item h="1" x="39"/>
+        <item h="1" x="43"/>
+        <item h="1" x="45"/>
+        <item h="1" x="36"/>
+        <item h="1" x="42"/>
+        <item h="1" x="38"/>
+        <item h="1" x="37"/>
+        <item h="1" x="40"/>
+        <item h="1" x="44"/>
+        <item h="1" x="8"/>
+        <item h="1" x="3"/>
+        <item h="1" x="9"/>
+        <item h="1" x="7"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item h="1" x="5"/>
+        <item h="1" x="4"/>
+        <item h="1" x="22"/>
+        <item x="15"/>
+        <item x="18"/>
+        <item h="1" x="16"/>
+        <item x="13"/>
+        <item x="17"/>
+        <item x="10"/>
+        <item x="19"/>
+        <item x="12"/>
+        <item x="20"/>
+        <item x="11"/>
+        <item x="14"/>
+        <item x="21"/>
+        <item h="1" x="35"/>
+        <item x="28"/>
+        <item x="31"/>
+        <item h="1" x="29"/>
+        <item x="26"/>
+        <item x="30"/>
+        <item x="23"/>
+        <item x="32"/>
+        <item x="25"/>
+        <item x="33"/>
+        <item x="24"/>
+        <item x="27"/>
+        <item x="34"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="6">
+        <item h="1" x="0"/>
+        <item h="1" x="2"/>
+        <item x="3"/>
+        <item h="1" x="1"/>
+        <item h="1" x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" sortType="ascending"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0" sortType="ascending">
+      <items count="12">
+        <item h="1" x="0"/>
+        <item x="6"/>
+        <item h="1" x="10"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="4"/>
+        <item h="1" x="8"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="34"/>
+  </rowFields>
+  <rowItems count="1">
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="1">
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="30" hier="-1"/>
+    <pageField fld="4" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Different Story Points" fld="36" baseField="26" baseItem="1"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="PivotTable2" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
+  <location ref="A24:G29" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="41">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="6">
+        <item h="1" x="0"/>
+        <item h="1" x="2"/>
+        <item x="3"/>
+        <item h="1" x="1"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0" sortType="ascending">
+      <items count="12">
+        <item h="1" x="0"/>
+        <item x="6"/>
+        <item x="10"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="4"/>
+        <item x="8"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="5">
+        <item h="1" x="1"/>
+        <item x="2"/>
+        <item h="1" x="3"/>
+        <item h="1" x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="33"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="1"/>
+    <field x="-2"/>
+  </colFields>
+  <colItems count="6">
+    <i>
+      <x v="3"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="4"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+    <i t="grand" i="1">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="30" hier="-1"/>
+    <pageField fld="37" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="Count" fld="13" subtotal="count" baseField="26" baseItem="0"/>
+    <dataField name="SPs" fld="13" baseField="26" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000004000000}" name="PivotTable5" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
+  <location ref="A41:B43" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="41">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="47">
+        <item h="1" x="0"/>
+        <item h="1" x="41"/>
+        <item h="1" x="39"/>
+        <item h="1" x="43"/>
+        <item h="1" x="45"/>
+        <item h="1" x="36"/>
+        <item h="1" x="42"/>
+        <item h="1" x="38"/>
+        <item h="1" x="37"/>
+        <item h="1" x="40"/>
+        <item h="1" x="44"/>
+        <item h="1" x="8"/>
+        <item h="1" x="3"/>
+        <item h="1" x="9"/>
+        <item h="1" x="7"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item h="1" x="5"/>
+        <item h="1" x="4"/>
+        <item h="1" x="22"/>
+        <item x="15"/>
+        <item x="18"/>
+        <item h="1" x="16"/>
+        <item x="13"/>
+        <item x="17"/>
+        <item x="10"/>
+        <item x="19"/>
+        <item x="12"/>
+        <item x="20"/>
+        <item x="11"/>
+        <item x="14"/>
+        <item x="21"/>
+        <item h="1" x="35"/>
+        <item x="28"/>
+        <item x="31"/>
+        <item h="1" x="29"/>
+        <item x="26"/>
+        <item x="30"/>
+        <item x="23"/>
+        <item x="32"/>
+        <item x="25"/>
+        <item x="33"/>
+        <item x="24"/>
+        <item x="27"/>
+        <item x="34"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="6">
+        <item h="1" x="0"/>
+        <item h="1" x="2"/>
+        <item x="3"/>
+        <item h="1" x="1"/>
+        <item h="1" x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0" sortType="ascending">
+      <items count="12">
+        <item h="1" x="0"/>
+        <item x="6"/>
+        <item h="1" x="10"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="4"/>
+        <item h="1" x="8"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="33"/>
+  </rowFields>
+  <rowItems count="1">
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="1">
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="30" hier="-1"/>
+    <pageField fld="4" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Different Story Points" fld="36" baseField="26" baseItem="1"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000003000000}" name="PivotTable4" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
   <location ref="D5:E17" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="41">
@@ -9302,7 +9964,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
   <location ref="A5:B17" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="41">
@@ -9480,661 +10142,6 @@
   </pageFields>
   <dataFields count="1">
     <dataField name="Sum of Estimate in Days" fld="12" baseField="3" baseItem="4"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000002000000}" name="PivotTable3" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
-  <location ref="J5:L15" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="41">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="47">
-        <item h="1" x="0"/>
-        <item h="1" x="41"/>
-        <item h="1" x="39"/>
-        <item h="1" x="43"/>
-        <item h="1" x="45"/>
-        <item h="1" x="36"/>
-        <item h="1" x="42"/>
-        <item h="1" x="38"/>
-        <item h="1" x="37"/>
-        <item h="1" x="40"/>
-        <item h="1" x="44"/>
-        <item h="1" x="8"/>
-        <item x="3"/>
-        <item x="9"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item h="1" x="22"/>
-        <item h="1" x="15"/>
-        <item h="1" x="18"/>
-        <item h="1" x="16"/>
-        <item h="1" x="13"/>
-        <item h="1" x="17"/>
-        <item h="1" x="10"/>
-        <item h="1" x="19"/>
-        <item h="1" x="12"/>
-        <item h="1" x="20"/>
-        <item h="1" x="11"/>
-        <item h="1" x="14"/>
-        <item h="1" x="21"/>
-        <item h="1" x="35"/>
-        <item h="1" x="28"/>
-        <item h="1" x="31"/>
-        <item h="1" x="29"/>
-        <item h="1" x="26"/>
-        <item h="1" x="30"/>
-        <item h="1" x="23"/>
-        <item h="1" x="32"/>
-        <item h="1" x="25"/>
-        <item h="1" x="33"/>
-        <item h="1" x="24"/>
-        <item h="1" x="27"/>
-        <item h="1" x="34"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="6">
-        <item h="1" x="0"/>
-        <item h="1" x="2"/>
-        <item x="3"/>
-        <item h="1" x="1"/>
-        <item h="1" x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" sortType="ascending">
-      <items count="12">
-        <item h="1" x="0"/>
-        <item x="6"/>
-        <item h="1" x="10"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="9"/>
-        <item x="4"/>
-        <item h="1" x="8"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="33"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="2">
-    <field x="1"/>
-    <field x="-2"/>
-  </colFields>
-  <pageFields count="2">
-    <pageField fld="30" hier="-1"/>
-    <pageField fld="4" hier="-1"/>
-  </pageFields>
-  <dataFields count="2">
-    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="3" baseItem="4"/>
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="3" baseItem="4"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000005000000}" name="PivotTable7" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
-  <location ref="G41:H43" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="41">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="47">
-        <item h="1" x="0"/>
-        <item h="1" x="41"/>
-        <item h="1" x="39"/>
-        <item h="1" x="43"/>
-        <item h="1" x="45"/>
-        <item h="1" x="36"/>
-        <item h="1" x="42"/>
-        <item h="1" x="38"/>
-        <item h="1" x="37"/>
-        <item h="1" x="40"/>
-        <item h="1" x="44"/>
-        <item h="1" x="8"/>
-        <item h="1" x="3"/>
-        <item h="1" x="9"/>
-        <item h="1" x="7"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item h="1" x="5"/>
-        <item h="1" x="4"/>
-        <item h="1" x="22"/>
-        <item x="15"/>
-        <item x="18"/>
-        <item h="1" x="16"/>
-        <item x="13"/>
-        <item x="17"/>
-        <item x="10"/>
-        <item x="19"/>
-        <item x="12"/>
-        <item x="20"/>
-        <item x="11"/>
-        <item x="14"/>
-        <item x="21"/>
-        <item h="1" x="35"/>
-        <item x="28"/>
-        <item x="31"/>
-        <item h="1" x="29"/>
-        <item x="26"/>
-        <item x="30"/>
-        <item x="23"/>
-        <item x="32"/>
-        <item x="25"/>
-        <item x="33"/>
-        <item x="24"/>
-        <item x="27"/>
-        <item x="34"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="6">
-        <item h="1" x="0"/>
-        <item h="1" x="2"/>
-        <item x="3"/>
-        <item h="1" x="1"/>
-        <item h="1" x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" sortType="ascending"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0" sortType="ascending">
-      <items count="12">
-        <item h="1" x="0"/>
-        <item x="6"/>
-        <item h="1" x="10"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="9"/>
-        <item x="4"/>
-        <item h="1" x="8"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="34"/>
-  </rowFields>
-  <rowItems count="1">
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="1"/>
-  </colFields>
-  <colItems count="1">
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="30" hier="-1"/>
-    <pageField fld="4" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Different Story Points" fld="36" baseField="26" baseItem="1"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="PivotTable2" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
-  <location ref="A24:E28" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="41">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="6">
-        <item h="1" x="0"/>
-        <item h="1" x="2"/>
-        <item x="3"/>
-        <item h="1" x="1"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0" sortType="ascending">
-      <items count="12">
-        <item h="1" x="0"/>
-        <item x="6"/>
-        <item x="10"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="9"/>
-        <item x="4"/>
-        <item x="8"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="33"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="2">
-    <field x="1"/>
-    <field x="-2"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x v="3"/>
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-    <i t="grand" i="1">
-      <x/>
-    </i>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="30" hier="-1"/>
-    <pageField fld="37" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="2">
-    <dataField name="Count" fld="13" subtotal="count" baseField="26" baseItem="0"/>
-    <dataField name="SPs" fld="13" baseField="26" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000004000000}" name="PivotTable5" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
-  <location ref="A41:B43" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="41">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="47">
-        <item h="1" x="0"/>
-        <item h="1" x="41"/>
-        <item h="1" x="39"/>
-        <item h="1" x="43"/>
-        <item h="1" x="45"/>
-        <item h="1" x="36"/>
-        <item h="1" x="42"/>
-        <item h="1" x="38"/>
-        <item h="1" x="37"/>
-        <item h="1" x="40"/>
-        <item h="1" x="44"/>
-        <item h="1" x="8"/>
-        <item h="1" x="3"/>
-        <item h="1" x="9"/>
-        <item h="1" x="7"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item h="1" x="5"/>
-        <item h="1" x="4"/>
-        <item h="1" x="22"/>
-        <item x="15"/>
-        <item x="18"/>
-        <item h="1" x="16"/>
-        <item x="13"/>
-        <item x="17"/>
-        <item x="10"/>
-        <item x="19"/>
-        <item x="12"/>
-        <item x="20"/>
-        <item x="11"/>
-        <item x="14"/>
-        <item x="21"/>
-        <item h="1" x="35"/>
-        <item x="28"/>
-        <item x="31"/>
-        <item h="1" x="29"/>
-        <item x="26"/>
-        <item x="30"/>
-        <item x="23"/>
-        <item x="32"/>
-        <item x="25"/>
-        <item x="33"/>
-        <item x="24"/>
-        <item x="27"/>
-        <item x="34"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="6">
-        <item h="1" x="0"/>
-        <item h="1" x="2"/>
-        <item x="3"/>
-        <item h="1" x="1"/>
-        <item h="1" x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0" sortType="ascending">
-      <items count="12">
-        <item h="1" x="0"/>
-        <item x="6"/>
-        <item h="1" x="10"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="9"/>
-        <item x="4"/>
-        <item h="1" x="8"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="33"/>
-  </rowFields>
-  <rowItems count="1">
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="1"/>
-  </colFields>
-  <colItems count="1">
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="30" hier="-1"/>
-    <pageField fld="4" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Different Story Points" fld="36" baseField="26" baseItem="1"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -10776,18 +10783,18 @@
   <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.46484375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.46484375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.46484375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.73046875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.86328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.19921875" bestFit="1" customWidth="1"/>
@@ -11033,7 +11040,7 @@
       </c>
       <c r="E16" s="20"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="17" t="s">
         <v>51</v>
       </c>
@@ -11042,7 +11049,7 @@
       </c>
       <c r="E17" s="20"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" s="22" t="s">
         <v>147</v>
       </c>
@@ -11051,7 +11058,7 @@
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" s="16" t="s">
         <v>171</v>
       </c>
@@ -11059,7 +11066,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" s="16" t="s">
         <v>205</v>
       </c>
@@ -11067,50 +11074,102 @@
         <v>208</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B24" s="16" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
         <v>71</v>
       </c>
       <c r="D25" t="s">
+        <v>73</v>
+      </c>
+      <c r="F25" t="s">
         <v>134</v>
       </c>
-      <c r="E25" t="s">
+      <c r="G25" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="16" t="s">
         <v>45</v>
       </c>
       <c r="B26" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C26" t="s">
-        <v>212</v>
+        <v>210</v>
+      </c>
+      <c r="D26" t="s">
+        <v>209</v>
+      </c>
+      <c r="E26" t="s">
+        <v>210</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" s="17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
+      <c r="D27" s="20">
+        <v>1</v>
+      </c>
+      <c r="E27" s="20">
+        <v>5</v>
+      </c>
+      <c r="F27" s="20">
+        <v>1</v>
+      </c>
+      <c r="G27" s="20">
+        <v>5</v>
+      </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
+        <v>59</v>
+      </c>
+      <c r="B28" s="20">
+        <v>1</v>
+      </c>
+      <c r="C28" s="20">
+        <v>10</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
+      <c r="F28" s="20">
+        <v>1</v>
+      </c>
+      <c r="G28" s="20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A29" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="20">
+        <v>1</v>
+      </c>
+      <c r="C29" s="20">
+        <v>10</v>
+      </c>
+      <c r="D29" s="20">
+        <v>1</v>
+      </c>
+      <c r="E29" s="20">
+        <v>5</v>
+      </c>
+      <c r="F29" s="20">
+        <v>2</v>
+      </c>
+      <c r="G29" s="20">
+        <v>15</v>
+      </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A37" s="22" t="s">
@@ -11440,7 +11499,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="2" spans="1:39" s="5" customFormat="1" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:39" s="5" customFormat="1" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="s">
         <v>69</v>
       </c>
@@ -11553,7 +11612,7 @@
         <v>206</v>
       </c>
       <c r="AL2" s="15" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AM2" s="5" t="s">
         <v>11</v>
@@ -11610,6 +11669,9 @@
       </c>
       <c r="G5" s="5"/>
       <c r="J5" s="5"/>
+      <c r="N5" s="5">
+        <v>5</v>
+      </c>
       <c r="V5" s="4" t="s">
         <v>56</v>
       </c>
@@ -11625,7 +11687,7 @@
       </c>
       <c r="AJ5" s="4"/>
       <c r="AL5" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.45">
@@ -11644,6 +11706,9 @@
       <c r="E6" s="19" t="s">
         <v>97</v>
       </c>
+      <c r="N6" s="5">
+        <v>10</v>
+      </c>
       <c r="V6" s="4" t="s">
         <v>59</v>
       </c>
@@ -11675,6 +11740,9 @@
       <c r="E7" s="19" t="s">
         <v>98</v>
       </c>
+      <c r="N7" s="5">
+        <v>20</v>
+      </c>
       <c r="V7" s="4" t="s">
         <v>54</v>
       </c>
@@ -11687,7 +11755,7 @@
       </c>
       <c r="AJ7" s="4"/>
       <c r="AL7" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.45">
@@ -11714,6 +11782,9 @@
         <v>60</v>
       </c>
       <c r="AJ8" s="4"/>
+      <c r="AL8" s="5" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
@@ -11737,6 +11808,9 @@
         <v>61</v>
       </c>
       <c r="AJ9" s="4"/>
+      <c r="AL9" s="5" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
@@ -12000,7 +12074,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="33" spans="1:37" ht="26.25" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:38" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A33" s="5" t="s">
         <v>53</v>
       </c>
@@ -12008,7 +12082,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="1:37" ht="26.25" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:38" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A34" s="5" t="s">
         <v>53</v>
       </c>
@@ -12016,7 +12090,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="1:37" ht="26.25" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:38" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A35" s="5" t="s">
         <v>53</v>
       </c>
@@ -12024,7 +12098,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="36" spans="1:37" ht="26.25" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:38" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A36" s="5" t="s">
         <v>53</v>
       </c>
@@ -12032,7 +12106,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A37" s="5" t="s">
         <v>53</v>
       </c>
@@ -12040,7 +12114,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A38" s="5" t="s">
         <v>53</v>
       </c>
@@ -12048,7 +12122,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A39" s="5" t="s">
         <v>53</v>
       </c>
@@ -12056,7 +12130,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A40" s="5" t="s">
         <v>53</v>
       </c>
@@ -12064,7 +12138,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A41" s="5" t="s">
         <v>53</v>
       </c>
@@ -12072,7 +12146,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A42" s="5" t="s">
         <v>53</v>
       </c>
@@ -12080,7 +12154,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A43" s="5" t="s">
         <v>53</v>
       </c>
@@ -12088,7 +12162,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A44" s="5" t="s">
         <v>53</v>
       </c>
@@ -12096,7 +12170,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="1:37" ht="26.25" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:38" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A45" s="5" t="s">
         <v>53</v>
       </c>
@@ -12104,7 +12178,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="46" spans="1:37" ht="26.25" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:38" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A46" s="5" t="s">
         <v>53</v>
       </c>
@@ -12112,18 +12186,18 @@
         <v>93</v>
       </c>
     </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A47" s="5" t="s">
         <v>53</v>
       </c>
       <c r="E47" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="AK47" s="5" t="s">
+      <c r="AL47" s="5" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:38" x14ac:dyDescent="0.45">
       <c r="AH48" s="4"/>
     </row>
     <row r="49" spans="34:34" x14ac:dyDescent="0.45">

--- a/blueprint-jira-better-excel/Quasar-Issues.xlsx
+++ b/blueprint-jira-better-excel/Quasar-Issues.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\etc\blueprint-jira-better-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:180000_{FA99E832-3077-4903-A66A-B9A78FF4F122}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:180000_{7D3E1776-E6DA-4B12-BEE6-2F2A1138F019}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="8715" tabRatio="688" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1506,22 +1506,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Output" xfId="4" builtinId="21"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
@@ -1753,6 +1738,9 @@
                   <c:v>2432.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>2450.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1880,6 +1868,9 @@
                   <c:v>2284.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>2301.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2009,6 +2000,9 @@
                   <c:v>2016.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>2237</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2136,6 +2130,9 @@
                   <c:v>1707</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>1873</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2933,6 +2930,9 @@
                   <c:v>1086.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>1047.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3060,6 +3060,9 @@
                   <c:v>1064.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>1026.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3189,6 +3192,9 @@
                   <c:v>885</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3316,6 +3322,9 @@
                   <c:v>776.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>867</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4117,6 +4126,9 @@
                   <c:v>944</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>937</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4244,6 +4256,9 @@
                   <c:v>874</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>922</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4373,6 +4388,9 @@
                   <c:v>822.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>917</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4500,6 +4518,9 @@
                   <c:v>693.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>748</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -6848,7 +6869,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43334.694266087965" missingItemsLimit="0" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="46" xr:uid="{00000000-000A-0000-FFFF-FFFF13000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43341.326828819445" missingItemsLimit="0" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="46" xr:uid="{00000000-000A-0000-FFFF-FFFF13000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="issues"/>
   </cacheSource>
@@ -9104,356 +9125,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000002000000}" name="PivotTable3" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
-  <location ref="J5:L15" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="41">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="47">
-        <item h="1" x="0"/>
-        <item h="1" x="41"/>
-        <item h="1" x="39"/>
-        <item h="1" x="43"/>
-        <item h="1" x="45"/>
-        <item h="1" x="36"/>
-        <item h="1" x="42"/>
-        <item h="1" x="38"/>
-        <item h="1" x="37"/>
-        <item h="1" x="40"/>
-        <item h="1" x="44"/>
-        <item h="1" x="8"/>
-        <item x="3"/>
-        <item x="9"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item h="1" x="22"/>
-        <item h="1" x="15"/>
-        <item h="1" x="18"/>
-        <item h="1" x="16"/>
-        <item h="1" x="13"/>
-        <item h="1" x="17"/>
-        <item h="1" x="10"/>
-        <item h="1" x="19"/>
-        <item h="1" x="12"/>
-        <item h="1" x="20"/>
-        <item h="1" x="11"/>
-        <item h="1" x="14"/>
-        <item h="1" x="21"/>
-        <item h="1" x="35"/>
-        <item h="1" x="28"/>
-        <item h="1" x="31"/>
-        <item h="1" x="29"/>
-        <item h="1" x="26"/>
-        <item h="1" x="30"/>
-        <item h="1" x="23"/>
-        <item h="1" x="32"/>
-        <item h="1" x="25"/>
-        <item h="1" x="33"/>
-        <item h="1" x="24"/>
-        <item h="1" x="27"/>
-        <item h="1" x="34"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="6">
-        <item h="1" x="0"/>
-        <item h="1" x="2"/>
-        <item x="3"/>
-        <item h="1" x="1"/>
-        <item h="1" x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" sortType="ascending">
-      <items count="12">
-        <item h="1" x="0"/>
-        <item x="6"/>
-        <item h="1" x="10"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="9"/>
-        <item x="4"/>
-        <item h="1" x="8"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="33"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="2">
-    <field x="1"/>
-    <field x="-2"/>
-  </colFields>
-  <pageFields count="2">
-    <pageField fld="30" hier="-1"/>
-    <pageField fld="4" hier="-1"/>
-  </pageFields>
-  <dataFields count="2">
-    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="3" baseItem="4"/>
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="3" baseItem="4"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000005000000}" name="PivotTable7" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
-  <location ref="G41:H43" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="41">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="47">
-        <item h="1" x="0"/>
-        <item h="1" x="41"/>
-        <item h="1" x="39"/>
-        <item h="1" x="43"/>
-        <item h="1" x="45"/>
-        <item h="1" x="36"/>
-        <item h="1" x="42"/>
-        <item h="1" x="38"/>
-        <item h="1" x="37"/>
-        <item h="1" x="40"/>
-        <item h="1" x="44"/>
-        <item h="1" x="8"/>
-        <item h="1" x="3"/>
-        <item h="1" x="9"/>
-        <item h="1" x="7"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item h="1" x="5"/>
-        <item h="1" x="4"/>
-        <item h="1" x="22"/>
-        <item x="15"/>
-        <item x="18"/>
-        <item h="1" x="16"/>
-        <item x="13"/>
-        <item x="17"/>
-        <item x="10"/>
-        <item x="19"/>
-        <item x="12"/>
-        <item x="20"/>
-        <item x="11"/>
-        <item x="14"/>
-        <item x="21"/>
-        <item h="1" x="35"/>
-        <item x="28"/>
-        <item x="31"/>
-        <item h="1" x="29"/>
-        <item x="26"/>
-        <item x="30"/>
-        <item x="23"/>
-        <item x="32"/>
-        <item x="25"/>
-        <item x="33"/>
-        <item x="24"/>
-        <item x="27"/>
-        <item x="34"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="6">
-        <item h="1" x="0"/>
-        <item h="1" x="2"/>
-        <item x="3"/>
-        <item h="1" x="1"/>
-        <item h="1" x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" sortType="ascending"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0" sortType="ascending">
-      <items count="12">
-        <item h="1" x="0"/>
-        <item x="6"/>
-        <item h="1" x="10"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="9"/>
-        <item x="4"/>
-        <item h="1" x="8"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="34"/>
-  </rowFields>
-  <rowItems count="1">
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="1"/>
-  </colFields>
-  <colItems count="1">
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="30" hier="-1"/>
-    <pageField fld="4" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Different Story Points" fld="36" baseField="26" baseItem="1"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="PivotTable2" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
   <location ref="A24:G29" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="41">
@@ -9602,7 +9273,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000004000000}" name="PivotTable5" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
   <location ref="A41:B43" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="41">
@@ -9768,7 +9439,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000003000000}" name="PivotTable4" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
   <location ref="D5:E17" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="41">
@@ -9964,7 +9635,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
   <location ref="A5:B17" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="41">
@@ -10155,6 +9826,356 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000002000000}" name="PivotTable3" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
+  <location ref="J5:L15" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="41">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="47">
+        <item h="1" x="0"/>
+        <item h="1" x="41"/>
+        <item h="1" x="39"/>
+        <item h="1" x="43"/>
+        <item h="1" x="45"/>
+        <item h="1" x="36"/>
+        <item h="1" x="42"/>
+        <item h="1" x="38"/>
+        <item h="1" x="37"/>
+        <item h="1" x="40"/>
+        <item h="1" x="44"/>
+        <item h="1" x="8"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item h="1" x="22"/>
+        <item h="1" x="15"/>
+        <item h="1" x="18"/>
+        <item h="1" x="16"/>
+        <item h="1" x="13"/>
+        <item h="1" x="17"/>
+        <item h="1" x="10"/>
+        <item h="1" x="19"/>
+        <item h="1" x="12"/>
+        <item h="1" x="20"/>
+        <item h="1" x="11"/>
+        <item h="1" x="14"/>
+        <item h="1" x="21"/>
+        <item h="1" x="35"/>
+        <item h="1" x="28"/>
+        <item h="1" x="31"/>
+        <item h="1" x="29"/>
+        <item h="1" x="26"/>
+        <item h="1" x="30"/>
+        <item h="1" x="23"/>
+        <item h="1" x="32"/>
+        <item h="1" x="25"/>
+        <item h="1" x="33"/>
+        <item h="1" x="24"/>
+        <item h="1" x="27"/>
+        <item h="1" x="34"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="6">
+        <item h="1" x="0"/>
+        <item h="1" x="2"/>
+        <item x="3"/>
+        <item h="1" x="1"/>
+        <item h="1" x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" sortType="ascending">
+      <items count="12">
+        <item h="1" x="0"/>
+        <item x="6"/>
+        <item h="1" x="10"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="4"/>
+        <item h="1" x="8"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="33"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="1"/>
+    <field x="-2"/>
+  </colFields>
+  <pageFields count="2">
+    <pageField fld="30" hier="-1"/>
+    <pageField fld="4" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="3" baseItem="4"/>
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="3" baseItem="4"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000005000000}" name="PivotTable7" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
+  <location ref="G41:H43" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="41">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="47">
+        <item h="1" x="0"/>
+        <item h="1" x="41"/>
+        <item h="1" x="39"/>
+        <item h="1" x="43"/>
+        <item h="1" x="45"/>
+        <item h="1" x="36"/>
+        <item h="1" x="42"/>
+        <item h="1" x="38"/>
+        <item h="1" x="37"/>
+        <item h="1" x="40"/>
+        <item h="1" x="44"/>
+        <item h="1" x="8"/>
+        <item h="1" x="3"/>
+        <item h="1" x="9"/>
+        <item h="1" x="7"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item h="1" x="5"/>
+        <item h="1" x="4"/>
+        <item h="1" x="22"/>
+        <item x="15"/>
+        <item x="18"/>
+        <item h="1" x="16"/>
+        <item x="13"/>
+        <item x="17"/>
+        <item x="10"/>
+        <item x="19"/>
+        <item x="12"/>
+        <item x="20"/>
+        <item x="11"/>
+        <item x="14"/>
+        <item x="21"/>
+        <item h="1" x="35"/>
+        <item x="28"/>
+        <item x="31"/>
+        <item h="1" x="29"/>
+        <item x="26"/>
+        <item x="30"/>
+        <item x="23"/>
+        <item x="32"/>
+        <item x="25"/>
+        <item x="33"/>
+        <item x="24"/>
+        <item x="27"/>
+        <item x="34"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="6">
+        <item h="1" x="0"/>
+        <item h="1" x="2"/>
+        <item x="3"/>
+        <item h="1" x="1"/>
+        <item h="1" x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" sortType="ascending"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0" sortType="ascending">
+      <items count="12">
+        <item h="1" x="0"/>
+        <item x="6"/>
+        <item h="1" x="10"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="4"/>
+        <item h="1" x="8"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="34"/>
+  </rowFields>
+  <rowItems count="1">
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="1">
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="30" hier="-1"/>
+    <pageField fld="4" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Different Story Points" fld="36" baseField="26" baseItem="1"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable2" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" missingCaption="0" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Component">
   <location ref="A5:C8" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
@@ -10271,7 +10292,7 @@
     <dataField name="Development Progress" fld="38" subtotal="count" baseField="10" baseItem="1" numFmtId="9"/>
   </dataFields>
   <formats count="5">
-    <format dxfId="9">
+    <format dxfId="4">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -10281,7 +10302,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="8">
+    <format dxfId="3">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1">
@@ -10291,7 +10312,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="7">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1">
@@ -10301,7 +10322,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1">
@@ -10311,7 +10332,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="5">
+    <format dxfId="0">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -10794,7 +10815,7 @@
     <col min="4" max="4" width="16.86328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.19921875" bestFit="1" customWidth="1"/>
@@ -12241,7 +12262,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomRight" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -13406,98 +13427,86 @@
       <c r="C14" s="44">
         <v>43340</v>
       </c>
-      <c r="D14" s="41" t="e">
-        <f>GETPIVOTDATA("Epic Total Estimate", Features!$A$5, "Type", "Epic")</f>
-        <v>#REF!</v>
+      <c r="D14" s="41">
+        <v>2450.5</v>
       </c>
       <c r="E14" s="48">
         <v>2380</v>
       </c>
-      <c r="F14" s="42" t="e">
-        <f>GETPIVOTDATA("Stories Estimate", Features!$A$5, "Type", "Epic")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G14" s="42" t="e">
-        <f>GETPIVOTDATA("Epic Decomposed", Features!$A$5, "Type", "Epic")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H14" s="42" t="e">
+      <c r="F14" s="42">
+        <v>2301.5</v>
+      </c>
+      <c r="G14" s="42">
+        <v>2237</v>
+      </c>
+      <c r="H14" s="42">
         <f t="shared" ref="H14" si="80">D14-I14</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I14" s="42" t="e">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", Features!$A$5, "Type", "Epic")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J14" s="21" t="e">
+        <v>1873</v>
+      </c>
+      <c r="I14" s="42">
+        <v>577.5</v>
+      </c>
+      <c r="J14" s="21">
         <f t="shared" ref="J14" si="81" xml:space="preserve"> G14/D14</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K14" s="21" t="e">
+        <v>0.9128749234850031</v>
+      </c>
+      <c r="K14" s="21">
         <f t="shared" ref="K14" si="82" xml:space="preserve"> H14/D14</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L14" s="43" t="e">
-        <f>GETPIVOTDATA("Epic Total Estimate", Features!$A$5, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
-        <v>#REF!</v>
+        <v>0.76433380942664764</v>
+      </c>
+      <c r="L14" s="43">
+        <v>1047.5</v>
       </c>
       <c r="M14" s="48">
         <v>1400</v>
       </c>
-      <c r="N14" s="42" t="e">
-        <f>GETPIVOTDATA("Stories Estimate", Features!$A$5, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O14" s="42" t="e">
-        <f>GETPIVOTDATA("Epic Decomposed", Features!$A$5, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P14" s="42" t="e">
+      <c r="N14" s="42">
+        <v>1026.5</v>
+      </c>
+      <c r="O14" s="42">
+        <v>1000</v>
+      </c>
+      <c r="P14" s="42">
         <f t="shared" ref="P14" si="83">L14-Q14</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q14" s="42" t="e">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", Features!$A$5, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="R14" s="21" t="e">
+        <v>867</v>
+      </c>
+      <c r="Q14" s="42">
+        <v>180.5</v>
+      </c>
+      <c r="R14" s="21">
         <f t="shared" ref="R14" si="84" xml:space="preserve"> O14/L14</f>
-        <v>#REF!</v>
-      </c>
-      <c r="S14" s="21" t="e">
+        <v>0.95465393794749398</v>
+      </c>
+      <c r="S14" s="21">
         <f t="shared" ref="S14" si="85" xml:space="preserve"> P14/L14</f>
-        <v>#REF!</v>
-      </c>
-      <c r="T14" s="41" t="e">
-        <f>GETPIVOTDATA("Epic Total Estimate", Features!$A$5, "Type", "Epic", "ST:Components", "Artifact List")</f>
-        <v>#REF!</v>
+        <v>0.82768496420047732</v>
+      </c>
+      <c r="T14" s="41">
+        <v>937</v>
       </c>
       <c r="U14" s="48">
         <v>700</v>
       </c>
-      <c r="V14" s="42" t="e">
-        <f>GETPIVOTDATA("Stories Estimate", Features!$A$5, "Type", "Epic", "ST:Components", "Artifact List")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="W14" s="42" t="e">
-        <f>GETPIVOTDATA("Epic Decomposed", Features!$A$5, "Type", "Epic", "ST:Components", "Artifact List")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="X14" s="42" t="e">
+      <c r="V14" s="42">
+        <v>922</v>
+      </c>
+      <c r="W14" s="42">
+        <v>917</v>
+      </c>
+      <c r="X14" s="42">
         <f t="shared" ref="X14" si="86">T14-Y14</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Y14" s="42" t="e">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", Features!$A$5, "Type", "Epic", "ST:Components", "Artifact List")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Z14" s="21" t="e">
+        <v>748</v>
+      </c>
+      <c r="Y14" s="42">
+        <v>189</v>
+      </c>
+      <c r="Z14" s="21">
         <f t="shared" ref="Z14" si="87" xml:space="preserve"> W14/T14</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AA14" s="21" t="e">
+        <v>0.97865528281750269</v>
+      </c>
+      <c r="AA14" s="21">
         <f t="shared" ref="AA14" si="88">X14/T14</f>
-        <v>#REF!</v>
+        <v>0.79829242262540023</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.45">
@@ -13510,14 +13519,98 @@
       <c r="C15" s="44">
         <v>43354</v>
       </c>
+      <c r="D15" s="41" t="e">
+        <f>GETPIVOTDATA("Epic Total Estimate", Features!$A$5, "Type", "Epic")</f>
+        <v>#REF!</v>
+      </c>
       <c r="E15" s="48">
         <v>2380</v>
       </c>
+      <c r="F15" s="42" t="e">
+        <f>GETPIVOTDATA("Stories Estimate", Features!$A$5, "Type", "Epic")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G15" s="42" t="e">
+        <f>GETPIVOTDATA("Epic Decomposed", Features!$A$5, "Type", "Epic")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H15" s="42" t="e">
+        <f t="shared" ref="H15" si="89">D15-I15</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I15" s="42" t="e">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", Features!$A$5, "Type", "Epic")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J15" s="21" t="e">
+        <f t="shared" ref="J15" si="90" xml:space="preserve"> G15/D15</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K15" s="21" t="e">
+        <f t="shared" ref="K15" si="91" xml:space="preserve"> H15/D15</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L15" s="43" t="e">
+        <f>GETPIVOTDATA("Epic Total Estimate", Features!$A$5, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
+        <v>#REF!</v>
+      </c>
       <c r="M15" s="48">
         <v>1400</v>
       </c>
+      <c r="N15" s="42" t="e">
+        <f>GETPIVOTDATA("Stories Estimate", Features!$A$5, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O15" s="42" t="e">
+        <f>GETPIVOTDATA("Epic Decomposed", Features!$A$5, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P15" s="42" t="e">
+        <f t="shared" ref="P15" si="92">L15-Q15</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q15" s="42" t="e">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", Features!$A$5, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="R15" s="21" t="e">
+        <f t="shared" ref="R15" si="93" xml:space="preserve"> O15/L15</f>
+        <v>#REF!</v>
+      </c>
+      <c r="S15" s="21" t="e">
+        <f t="shared" ref="S15" si="94" xml:space="preserve"> P15/L15</f>
+        <v>#REF!</v>
+      </c>
+      <c r="T15" s="41" t="e">
+        <f>GETPIVOTDATA("Epic Total Estimate", Features!$A$5, "Type", "Epic", "ST:Components", "Artifact List")</f>
+        <v>#REF!</v>
+      </c>
       <c r="U15" s="48">
         <v>700</v>
+      </c>
+      <c r="V15" s="42" t="e">
+        <f>GETPIVOTDATA("Stories Estimate", Features!$A$5, "Type", "Epic", "ST:Components", "Artifact List")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="W15" s="42" t="e">
+        <f>GETPIVOTDATA("Epic Decomposed", Features!$A$5, "Type", "Epic", "ST:Components", "Artifact List")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="X15" s="42" t="e">
+        <f t="shared" ref="X15" si="95">T15-Y15</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Y15" s="42" t="e">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", Features!$A$5, "Type", "Epic", "ST:Components", "Artifact List")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Z15" s="21" t="e">
+        <f t="shared" ref="Z15" si="96" xml:space="preserve"> W15/T15</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AA15" s="21" t="e">
+        <f t="shared" ref="AA15" si="97">X15/T15</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.45">

--- a/blueprint-jira-better-excel/Quasar-Issues.xlsx
+++ b/blueprint-jira-better-excel/Quasar-Issues.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\etc\blueprint-jira-better-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:180000_{7D3E1776-E6DA-4B12-BEE6-2F2A1138F019}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:180000_{DEEADC6A-3CF8-43A1-A1A7-B3D614CB3AC5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="8715" tabRatio="688" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
   </definedNames>
   <calcPr calcId="179017"/>
   <pivotCaches>
-    <pivotCache cacheId="10" r:id="rId8"/>
+    <pivotCache cacheId="21" r:id="rId8"/>
   </pivotCaches>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
@@ -1506,7 +1506,22 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Output" xfId="4" builtinId="21"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="10">
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
@@ -1741,6 +1756,9 @@
                   <c:v>2450.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>2250.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1871,6 +1889,9 @@
                   <c:v>2301.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>2247.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2003,6 +2024,9 @@
                   <c:v>2237</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>2237.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2133,6 +2157,9 @@
                   <c:v>1873</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2933,6 +2960,9 @@
                   <c:v>1047.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>990.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3063,6 +3093,9 @@
                   <c:v>1026.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>990.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3195,6 +3228,9 @@
                   <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>981.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3325,6 +3361,9 @@
                   <c:v>867</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>922.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4129,6 +4168,9 @@
                   <c:v>937</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>943</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4259,6 +4301,9 @@
                   <c:v>922</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>943</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4391,6 +4436,9 @@
                   <c:v>917</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>943</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4521,6 +4569,9 @@
                   <c:v>748</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>811.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -6869,7 +6920,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43341.326828819445" missingItemsLimit="0" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="46" xr:uid="{00000000-000A-0000-FFFF-FFFF13000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43368.620419212966" missingItemsLimit="0" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="46" xr:uid="{00000000-000A-0000-FFFF-FFFF13000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="issues"/>
   </cacheSource>
@@ -8954,7 +9005,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable2" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable2" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
   <location ref="A5:C6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="41">
     <pivotField dataField="1" subtotalTop="0" showAll="0"/>
@@ -9125,322 +9176,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="PivotTable2" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
-  <location ref="A24:G29" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="41">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="6">
-        <item h="1" x="0"/>
-        <item h="1" x="2"/>
-        <item x="3"/>
-        <item h="1" x="1"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0" sortType="ascending">
-      <items count="12">
-        <item h="1" x="0"/>
-        <item x="6"/>
-        <item x="10"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="9"/>
-        <item x="4"/>
-        <item x="8"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="5">
-        <item h="1" x="1"/>
-        <item x="2"/>
-        <item h="1" x="3"/>
-        <item h="1" x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="33"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="2">
-    <field x="1"/>
-    <field x="-2"/>
-  </colFields>
-  <colItems count="6">
-    <i>
-      <x v="3"/>
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="4"/>
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-    <i t="grand" i="1">
-      <x/>
-    </i>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="30" hier="-1"/>
-    <pageField fld="37" hier="-1"/>
-  </pageFields>
-  <dataFields count="2">
-    <dataField name="Count" fld="13" subtotal="count" baseField="26" baseItem="0"/>
-    <dataField name="SPs" fld="13" baseField="26" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000004000000}" name="PivotTable5" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
-  <location ref="A41:B43" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="41">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="47">
-        <item h="1" x="0"/>
-        <item h="1" x="41"/>
-        <item h="1" x="39"/>
-        <item h="1" x="43"/>
-        <item h="1" x="45"/>
-        <item h="1" x="36"/>
-        <item h="1" x="42"/>
-        <item h="1" x="38"/>
-        <item h="1" x="37"/>
-        <item h="1" x="40"/>
-        <item h="1" x="44"/>
-        <item h="1" x="8"/>
-        <item h="1" x="3"/>
-        <item h="1" x="9"/>
-        <item h="1" x="7"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item h="1" x="5"/>
-        <item h="1" x="4"/>
-        <item h="1" x="22"/>
-        <item x="15"/>
-        <item x="18"/>
-        <item h="1" x="16"/>
-        <item x="13"/>
-        <item x="17"/>
-        <item x="10"/>
-        <item x="19"/>
-        <item x="12"/>
-        <item x="20"/>
-        <item x="11"/>
-        <item x="14"/>
-        <item x="21"/>
-        <item h="1" x="35"/>
-        <item x="28"/>
-        <item x="31"/>
-        <item h="1" x="29"/>
-        <item x="26"/>
-        <item x="30"/>
-        <item x="23"/>
-        <item x="32"/>
-        <item x="25"/>
-        <item x="33"/>
-        <item x="24"/>
-        <item x="27"/>
-        <item x="34"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="6">
-        <item h="1" x="0"/>
-        <item h="1" x="2"/>
-        <item x="3"/>
-        <item h="1" x="1"/>
-        <item h="1" x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0" sortType="ascending">
-      <items count="12">
-        <item h="1" x="0"/>
-        <item x="6"/>
-        <item h="1" x="10"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="9"/>
-        <item x="4"/>
-        <item h="1" x="8"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="33"/>
-  </rowFields>
-  <rowItems count="1">
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="1"/>
-  </colFields>
-  <colItems count="1">
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="30" hier="-1"/>
-    <pageField fld="4" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Different Story Points" fld="36" baseField="26" baseItem="1"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000003000000}" name="PivotTable4" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000003000000}" name="PivotTable4" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
   <location ref="D5:E17" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="41">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -9635,8 +9371,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
   <location ref="A5:B17" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="41">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -9826,8 +9562,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000002000000}" name="PivotTable3" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000002000000}" name="PivotTable3" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
   <location ref="J5:L15" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="41">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -10010,8 +9746,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000005000000}" name="PivotTable7" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000005000000}" name="PivotTable7" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
   <location ref="G41:H43" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="41">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -10176,8 +9912,323 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="PivotTable2" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
+  <location ref="A24:G29" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="41">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="6">
+        <item h="1" x="0"/>
+        <item h="1" x="2"/>
+        <item x="3"/>
+        <item h="1" x="1"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0" sortType="ascending">
+      <items count="12">
+        <item h="1" x="0"/>
+        <item x="6"/>
+        <item x="10"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="4"/>
+        <item x="8"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="5">
+        <item h="1" x="1"/>
+        <item x="2"/>
+        <item h="1" x="3"/>
+        <item h="1" x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="33"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="1"/>
+    <field x="-2"/>
+  </colFields>
+  <colItems count="6">
+    <i>
+      <x v="3"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="4"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+    <i t="grand" i="1">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="30" hier="-1"/>
+    <pageField fld="37" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="Count" fld="13" subtotal="count" baseField="26" baseItem="0"/>
+    <dataField name="SPs" fld="13" baseField="26" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000004000000}" name="PivotTable5" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
+  <location ref="A41:B43" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="41">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="47">
+        <item h="1" x="0"/>
+        <item h="1" x="41"/>
+        <item h="1" x="39"/>
+        <item h="1" x="43"/>
+        <item h="1" x="45"/>
+        <item h="1" x="36"/>
+        <item h="1" x="42"/>
+        <item h="1" x="38"/>
+        <item h="1" x="37"/>
+        <item h="1" x="40"/>
+        <item h="1" x="44"/>
+        <item h="1" x="8"/>
+        <item h="1" x="3"/>
+        <item h="1" x="9"/>
+        <item h="1" x="7"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item h="1" x="5"/>
+        <item h="1" x="4"/>
+        <item h="1" x="22"/>
+        <item x="15"/>
+        <item x="18"/>
+        <item h="1" x="16"/>
+        <item x="13"/>
+        <item x="17"/>
+        <item x="10"/>
+        <item x="19"/>
+        <item x="12"/>
+        <item x="20"/>
+        <item x="11"/>
+        <item x="14"/>
+        <item x="21"/>
+        <item h="1" x="35"/>
+        <item x="28"/>
+        <item x="31"/>
+        <item h="1" x="29"/>
+        <item x="26"/>
+        <item x="30"/>
+        <item x="23"/>
+        <item x="32"/>
+        <item x="25"/>
+        <item x="33"/>
+        <item x="24"/>
+        <item x="27"/>
+        <item x="34"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="6">
+        <item h="1" x="0"/>
+        <item h="1" x="2"/>
+        <item x="3"/>
+        <item h="1" x="1"/>
+        <item h="1" x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0" sortType="ascending">
+      <items count="12">
+        <item h="1" x="0"/>
+        <item x="6"/>
+        <item h="1" x="10"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="4"/>
+        <item h="1" x="8"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="33"/>
+  </rowFields>
+  <rowItems count="1">
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="1">
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="30" hier="-1"/>
+    <pageField fld="4" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Different Story Points" fld="36" baseField="26" baseItem="1"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable2" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" missingCaption="0" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Component">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable2" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" missingCaption="0" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Component">
   <location ref="A5:C8" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="41">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -10292,7 +10343,7 @@
     <dataField name="Development Progress" fld="38" subtotal="count" baseField="10" baseItem="1" numFmtId="9"/>
   </dataFields>
   <formats count="5">
-    <format dxfId="4">
+    <format dxfId="9">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -10302,7 +10353,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="3">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1">
@@ -10312,7 +10363,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="7">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1">
@@ -10322,7 +10373,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="6">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1">
@@ -10332,7 +10383,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="5">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -10809,13 +10860,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="20.46484375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.46484375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.86328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.46484375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.19921875" bestFit="1" customWidth="1"/>
@@ -12262,7 +12313,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A15" sqref="A15"/>
+      <selection pane="bottomRight" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -13519,98 +13570,86 @@
       <c r="C15" s="44">
         <v>43354</v>
       </c>
-      <c r="D15" s="41" t="e">
-        <f>GETPIVOTDATA("Epic Total Estimate", Features!$A$5, "Type", "Epic")</f>
-        <v>#REF!</v>
+      <c r="D15" s="41">
+        <v>2250.5</v>
       </c>
       <c r="E15" s="48">
         <v>2380</v>
       </c>
-      <c r="F15" s="42" t="e">
-        <f>GETPIVOTDATA("Stories Estimate", Features!$A$5, "Type", "Epic")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G15" s="42" t="e">
-        <f>GETPIVOTDATA("Epic Decomposed", Features!$A$5, "Type", "Epic")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H15" s="42" t="e">
+      <c r="F15" s="42">
+        <v>2247.5</v>
+      </c>
+      <c r="G15" s="42">
+        <v>2237.5</v>
+      </c>
+      <c r="H15" s="42">
         <f t="shared" ref="H15" si="89">D15-I15</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I15" s="42" t="e">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", Features!$A$5, "Type", "Epic")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J15" s="21" t="e">
+        <v>1998</v>
+      </c>
+      <c r="I15" s="42">
+        <v>252.5</v>
+      </c>
+      <c r="J15" s="21">
         <f t="shared" ref="J15" si="90" xml:space="preserve"> G15/D15</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K15" s="21" t="e">
+        <v>0.99422350588758057</v>
+      </c>
+      <c r="K15" s="21">
         <f t="shared" ref="K15" si="91" xml:space="preserve"> H15/D15</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L15" s="43" t="e">
-        <f>GETPIVOTDATA("Epic Total Estimate", Features!$A$5, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
-        <v>#REF!</v>
+        <v>0.88780271050877579</v>
+      </c>
+      <c r="L15" s="43">
+        <v>990.5</v>
       </c>
       <c r="M15" s="48">
         <v>1400</v>
       </c>
-      <c r="N15" s="42" t="e">
-        <f>GETPIVOTDATA("Stories Estimate", Features!$A$5, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O15" s="42" t="e">
-        <f>GETPIVOTDATA("Epic Decomposed", Features!$A$5, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P15" s="42" t="e">
+      <c r="N15" s="42">
+        <v>990.5</v>
+      </c>
+      <c r="O15" s="42">
+        <v>981.5</v>
+      </c>
+      <c r="P15" s="42">
         <f t="shared" ref="P15" si="92">L15-Q15</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q15" s="42" t="e">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", Features!$A$5, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="R15" s="21" t="e">
+        <v>922.5</v>
+      </c>
+      <c r="Q15" s="42">
+        <v>68</v>
+      </c>
+      <c r="R15" s="21">
         <f t="shared" ref="R15" si="93" xml:space="preserve"> O15/L15</f>
-        <v>#REF!</v>
-      </c>
-      <c r="S15" s="21" t="e">
+        <v>0.99091367995961632</v>
+      </c>
+      <c r="S15" s="21">
         <f t="shared" ref="S15" si="94" xml:space="preserve"> P15/L15</f>
-        <v>#REF!</v>
-      </c>
-      <c r="T15" s="41" t="e">
-        <f>GETPIVOTDATA("Epic Total Estimate", Features!$A$5, "Type", "Epic", "ST:Components", "Artifact List")</f>
-        <v>#REF!</v>
+        <v>0.93134780413932361</v>
+      </c>
+      <c r="T15" s="41">
+        <v>943</v>
       </c>
       <c r="U15" s="48">
         <v>700</v>
       </c>
-      <c r="V15" s="42" t="e">
-        <f>GETPIVOTDATA("Stories Estimate", Features!$A$5, "Type", "Epic", "ST:Components", "Artifact List")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="W15" s="42" t="e">
-        <f>GETPIVOTDATA("Epic Decomposed", Features!$A$5, "Type", "Epic", "ST:Components", "Artifact List")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="X15" s="42" t="e">
+      <c r="V15" s="42">
+        <v>943</v>
+      </c>
+      <c r="W15" s="42">
+        <v>943</v>
+      </c>
+      <c r="X15" s="42">
         <f t="shared" ref="X15" si="95">T15-Y15</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Y15" s="42" t="e">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", Features!$A$5, "Type", "Epic", "ST:Components", "Artifact List")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Z15" s="21" t="e">
+        <v>811.5</v>
+      </c>
+      <c r="Y15" s="42">
+        <v>131.5</v>
+      </c>
+      <c r="Z15" s="21">
         <f t="shared" ref="Z15" si="96" xml:space="preserve"> W15/T15</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AA15" s="21" t="e">
+        <v>1</v>
+      </c>
+      <c r="AA15" s="21">
         <f t="shared" ref="AA15" si="97">X15/T15</f>
-        <v>#REF!</v>
+        <v>0.86055143160127257</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.45">
@@ -13623,14 +13662,98 @@
       <c r="C16" s="44">
         <v>43368</v>
       </c>
+      <c r="D16" s="41" t="e">
+        <f>GETPIVOTDATA("Epic Total Estimate", Features!$A$5, "Type", "Epic")</f>
+        <v>#REF!</v>
+      </c>
       <c r="E16" s="48">
         <v>2380</v>
       </c>
+      <c r="F16" s="42" t="e">
+        <f>GETPIVOTDATA("Stories Estimate", Features!$A$5, "Type", "Epic")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G16" s="42" t="e">
+        <f>GETPIVOTDATA("Epic Decomposed", Features!$A$5, "Type", "Epic")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H16" s="42" t="e">
+        <f t="shared" ref="H16" si="98">D16-I16</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I16" s="42" t="e">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", Features!$A$5, "Type", "Epic")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J16" s="21" t="e">
+        <f t="shared" ref="J16" si="99" xml:space="preserve"> G16/D16</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K16" s="21" t="e">
+        <f t="shared" ref="K16" si="100" xml:space="preserve"> H16/D16</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L16" s="43" t="e">
+        <f>GETPIVOTDATA("Epic Total Estimate", Features!$A$5, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
+        <v>#REF!</v>
+      </c>
       <c r="M16" s="48">
         <v>1400</v>
       </c>
+      <c r="N16" s="42" t="e">
+        <f>GETPIVOTDATA("Stories Estimate", Features!$A$5, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O16" s="42" t="e">
+        <f>GETPIVOTDATA("Epic Decomposed", Features!$A$5, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P16" s="42" t="e">
+        <f t="shared" ref="P16" si="101">L16-Q16</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q16" s="42" t="e">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", Features!$A$5, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="R16" s="21" t="e">
+        <f t="shared" ref="R16" si="102" xml:space="preserve"> O16/L16</f>
+        <v>#REF!</v>
+      </c>
+      <c r="S16" s="21" t="e">
+        <f t="shared" ref="S16" si="103" xml:space="preserve"> P16/L16</f>
+        <v>#REF!</v>
+      </c>
+      <c r="T16" s="41" t="e">
+        <f>GETPIVOTDATA("Epic Total Estimate", Features!$A$5, "Type", "Epic", "ST:Components", "Artifact List")</f>
+        <v>#REF!</v>
+      </c>
       <c r="U16" s="48">
         <v>700</v>
+      </c>
+      <c r="V16" s="42" t="e">
+        <f>GETPIVOTDATA("Stories Estimate", Features!$A$5, "Type", "Epic", "ST:Components", "Artifact List")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="W16" s="42" t="e">
+        <f>GETPIVOTDATA("Epic Decomposed", Features!$A$5, "Type", "Epic", "ST:Components", "Artifact List")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="X16" s="42" t="e">
+        <f t="shared" ref="X16" si="104">T16-Y16</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Y16" s="42" t="e">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", Features!$A$5, "Type", "Epic", "ST:Components", "Artifact List")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Z16" s="21" t="e">
+        <f t="shared" ref="Z16" si="105" xml:space="preserve"> W16/T16</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AA16" s="21" t="e">
+        <f t="shared" ref="AA16" si="106">X16/T16</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.45">

--- a/blueprint-jira-better-excel/Quasar-Issues.xlsx
+++ b/blueprint-jira-better-excel/Quasar-Issues.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\etc\blueprint-jira-better-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:180000_{DEEADC6A-3CF8-43A1-A1A7-B3D614CB3AC5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:180000_{6BD6B56E-8DC5-4085-A434-B322F4308F25}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="8715" tabRatio="688" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1759,6 +1759,9 @@
                   <c:v>2250.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>2227</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1892,6 +1895,9 @@
                   <c:v>2247.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>2227</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2027,6 +2033,9 @@
                   <c:v>2237.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>2227</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2160,6 +2169,9 @@
                   <c:v>1998</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>2103</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2963,6 +2975,9 @@
                   <c:v>990.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>964.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3096,6 +3111,9 @@
                   <c:v>990.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>964.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3231,6 +3249,9 @@
                   <c:v>981.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>964.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3364,6 +3385,9 @@
                   <c:v>922.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>957.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4171,6 +4195,9 @@
                   <c:v>943</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>948.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4304,6 +4331,9 @@
                   <c:v>943</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>948.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4439,6 +4469,9 @@
                   <c:v>943</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>948.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4572,6 +4605,9 @@
                   <c:v>811.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>860.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -6920,7 +6956,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43368.620419212966" missingItemsLimit="0" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="46" xr:uid="{00000000-000A-0000-FFFF-FFFF13000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43369.317274421293" missingItemsLimit="0" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="46" xr:uid="{00000000-000A-0000-FFFF-FFFF13000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="issues"/>
   </cacheSource>
@@ -9176,6 +9212,671 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000002000000}" name="PivotTable3" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
+  <location ref="J5:L15" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="41">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="47">
+        <item h="1" x="0"/>
+        <item h="1" x="41"/>
+        <item h="1" x="39"/>
+        <item h="1" x="43"/>
+        <item h="1" x="45"/>
+        <item h="1" x="36"/>
+        <item h="1" x="42"/>
+        <item h="1" x="38"/>
+        <item h="1" x="37"/>
+        <item h="1" x="40"/>
+        <item h="1" x="44"/>
+        <item h="1" x="8"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item h="1" x="22"/>
+        <item h="1" x="15"/>
+        <item h="1" x="18"/>
+        <item h="1" x="16"/>
+        <item h="1" x="13"/>
+        <item h="1" x="17"/>
+        <item h="1" x="10"/>
+        <item h="1" x="19"/>
+        <item h="1" x="12"/>
+        <item h="1" x="20"/>
+        <item h="1" x="11"/>
+        <item h="1" x="14"/>
+        <item h="1" x="21"/>
+        <item h="1" x="35"/>
+        <item h="1" x="28"/>
+        <item h="1" x="31"/>
+        <item h="1" x="29"/>
+        <item h="1" x="26"/>
+        <item h="1" x="30"/>
+        <item h="1" x="23"/>
+        <item h="1" x="32"/>
+        <item h="1" x="25"/>
+        <item h="1" x="33"/>
+        <item h="1" x="24"/>
+        <item h="1" x="27"/>
+        <item h="1" x="34"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="6">
+        <item h="1" x="0"/>
+        <item h="1" x="2"/>
+        <item x="3"/>
+        <item h="1" x="1"/>
+        <item h="1" x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" sortType="ascending">
+      <items count="12">
+        <item h="1" x="0"/>
+        <item x="6"/>
+        <item h="1" x="10"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="4"/>
+        <item h="1" x="8"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="33"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="1"/>
+    <field x="-2"/>
+  </colFields>
+  <pageFields count="2">
+    <pageField fld="30" hier="-1"/>
+    <pageField fld="4" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="3" baseItem="4"/>
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="3" baseItem="4"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000005000000}" name="PivotTable7" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
+  <location ref="G41:H43" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="41">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="47">
+        <item h="1" x="0"/>
+        <item h="1" x="41"/>
+        <item h="1" x="39"/>
+        <item h="1" x="43"/>
+        <item h="1" x="45"/>
+        <item h="1" x="36"/>
+        <item h="1" x="42"/>
+        <item h="1" x="38"/>
+        <item h="1" x="37"/>
+        <item h="1" x="40"/>
+        <item h="1" x="44"/>
+        <item h="1" x="8"/>
+        <item h="1" x="3"/>
+        <item h="1" x="9"/>
+        <item h="1" x="7"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item h="1" x="5"/>
+        <item h="1" x="4"/>
+        <item h="1" x="22"/>
+        <item x="15"/>
+        <item x="18"/>
+        <item h="1" x="16"/>
+        <item x="13"/>
+        <item x="17"/>
+        <item x="10"/>
+        <item x="19"/>
+        <item x="12"/>
+        <item x="20"/>
+        <item x="11"/>
+        <item x="14"/>
+        <item x="21"/>
+        <item h="1" x="35"/>
+        <item x="28"/>
+        <item x="31"/>
+        <item h="1" x="29"/>
+        <item x="26"/>
+        <item x="30"/>
+        <item x="23"/>
+        <item x="32"/>
+        <item x="25"/>
+        <item x="33"/>
+        <item x="24"/>
+        <item x="27"/>
+        <item x="34"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="6">
+        <item h="1" x="0"/>
+        <item h="1" x="2"/>
+        <item x="3"/>
+        <item h="1" x="1"/>
+        <item h="1" x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" sortType="ascending"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0" sortType="ascending">
+      <items count="12">
+        <item h="1" x="0"/>
+        <item x="6"/>
+        <item h="1" x="10"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="4"/>
+        <item h="1" x="8"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="34"/>
+  </rowFields>
+  <rowItems count="1">
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="1">
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="30" hier="-1"/>
+    <pageField fld="4" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Different Story Points" fld="36" baseField="26" baseItem="1"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="PivotTable2" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
+  <location ref="A24:G29" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="41">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="6">
+        <item h="1" x="0"/>
+        <item h="1" x="2"/>
+        <item x="3"/>
+        <item h="1" x="1"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0" sortType="ascending">
+      <items count="12">
+        <item h="1" x="0"/>
+        <item x="6"/>
+        <item x="10"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="4"/>
+        <item x="8"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="5">
+        <item h="1" x="1"/>
+        <item x="2"/>
+        <item h="1" x="3"/>
+        <item h="1" x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="33"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="1"/>
+    <field x="-2"/>
+  </colFields>
+  <colItems count="6">
+    <i>
+      <x v="3"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="4"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+    <i t="grand" i="1">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="30" hier="-1"/>
+    <pageField fld="37" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="Count" fld="13" subtotal="count" baseField="26" baseItem="0"/>
+    <dataField name="SPs" fld="13" baseField="26" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000004000000}" name="PivotTable5" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
+  <location ref="A41:B43" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="41">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="47">
+        <item h="1" x="0"/>
+        <item h="1" x="41"/>
+        <item h="1" x="39"/>
+        <item h="1" x="43"/>
+        <item h="1" x="45"/>
+        <item h="1" x="36"/>
+        <item h="1" x="42"/>
+        <item h="1" x="38"/>
+        <item h="1" x="37"/>
+        <item h="1" x="40"/>
+        <item h="1" x="44"/>
+        <item h="1" x="8"/>
+        <item h="1" x="3"/>
+        <item h="1" x="9"/>
+        <item h="1" x="7"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item h="1" x="5"/>
+        <item h="1" x="4"/>
+        <item h="1" x="22"/>
+        <item x="15"/>
+        <item x="18"/>
+        <item h="1" x="16"/>
+        <item x="13"/>
+        <item x="17"/>
+        <item x="10"/>
+        <item x="19"/>
+        <item x="12"/>
+        <item x="20"/>
+        <item x="11"/>
+        <item x="14"/>
+        <item x="21"/>
+        <item h="1" x="35"/>
+        <item x="28"/>
+        <item x="31"/>
+        <item h="1" x="29"/>
+        <item x="26"/>
+        <item x="30"/>
+        <item x="23"/>
+        <item x="32"/>
+        <item x="25"/>
+        <item x="33"/>
+        <item x="24"/>
+        <item x="27"/>
+        <item x="34"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="6">
+        <item h="1" x="0"/>
+        <item h="1" x="2"/>
+        <item x="3"/>
+        <item h="1" x="1"/>
+        <item h="1" x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0" sortType="ascending">
+      <items count="12">
+        <item h="1" x="0"/>
+        <item x="6"/>
+        <item h="1" x="10"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="4"/>
+        <item h="1" x="8"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="33"/>
+  </rowFields>
+  <rowItems count="1">
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="1">
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="30" hier="-1"/>
+    <pageField fld="4" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Different Story Points" fld="36" baseField="26" baseItem="1"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000003000000}" name="PivotTable4" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
   <location ref="D5:E17" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="41">
@@ -9371,7 +10072,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
   <location ref="A5:B17" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="41">
@@ -9549,671 +10250,6 @@
   </pageFields>
   <dataFields count="1">
     <dataField name="Sum of Estimate in Days" fld="12" baseField="3" baseItem="4"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000002000000}" name="PivotTable3" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
-  <location ref="J5:L15" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="41">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="47">
-        <item h="1" x="0"/>
-        <item h="1" x="41"/>
-        <item h="1" x="39"/>
-        <item h="1" x="43"/>
-        <item h="1" x="45"/>
-        <item h="1" x="36"/>
-        <item h="1" x="42"/>
-        <item h="1" x="38"/>
-        <item h="1" x="37"/>
-        <item h="1" x="40"/>
-        <item h="1" x="44"/>
-        <item h="1" x="8"/>
-        <item x="3"/>
-        <item x="9"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item h="1" x="22"/>
-        <item h="1" x="15"/>
-        <item h="1" x="18"/>
-        <item h="1" x="16"/>
-        <item h="1" x="13"/>
-        <item h="1" x="17"/>
-        <item h="1" x="10"/>
-        <item h="1" x="19"/>
-        <item h="1" x="12"/>
-        <item h="1" x="20"/>
-        <item h="1" x="11"/>
-        <item h="1" x="14"/>
-        <item h="1" x="21"/>
-        <item h="1" x="35"/>
-        <item h="1" x="28"/>
-        <item h="1" x="31"/>
-        <item h="1" x="29"/>
-        <item h="1" x="26"/>
-        <item h="1" x="30"/>
-        <item h="1" x="23"/>
-        <item h="1" x="32"/>
-        <item h="1" x="25"/>
-        <item h="1" x="33"/>
-        <item h="1" x="24"/>
-        <item h="1" x="27"/>
-        <item h="1" x="34"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="6">
-        <item h="1" x="0"/>
-        <item h="1" x="2"/>
-        <item x="3"/>
-        <item h="1" x="1"/>
-        <item h="1" x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" sortType="ascending">
-      <items count="12">
-        <item h="1" x="0"/>
-        <item x="6"/>
-        <item h="1" x="10"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="9"/>
-        <item x="4"/>
-        <item h="1" x="8"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="33"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="2">
-    <field x="1"/>
-    <field x="-2"/>
-  </colFields>
-  <pageFields count="2">
-    <pageField fld="30" hier="-1"/>
-    <pageField fld="4" hier="-1"/>
-  </pageFields>
-  <dataFields count="2">
-    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="3" baseItem="4"/>
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="3" baseItem="4"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000005000000}" name="PivotTable7" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
-  <location ref="G41:H43" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="41">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="47">
-        <item h="1" x="0"/>
-        <item h="1" x="41"/>
-        <item h="1" x="39"/>
-        <item h="1" x="43"/>
-        <item h="1" x="45"/>
-        <item h="1" x="36"/>
-        <item h="1" x="42"/>
-        <item h="1" x="38"/>
-        <item h="1" x="37"/>
-        <item h="1" x="40"/>
-        <item h="1" x="44"/>
-        <item h="1" x="8"/>
-        <item h="1" x="3"/>
-        <item h="1" x="9"/>
-        <item h="1" x="7"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item h="1" x="5"/>
-        <item h="1" x="4"/>
-        <item h="1" x="22"/>
-        <item x="15"/>
-        <item x="18"/>
-        <item h="1" x="16"/>
-        <item x="13"/>
-        <item x="17"/>
-        <item x="10"/>
-        <item x="19"/>
-        <item x="12"/>
-        <item x="20"/>
-        <item x="11"/>
-        <item x="14"/>
-        <item x="21"/>
-        <item h="1" x="35"/>
-        <item x="28"/>
-        <item x="31"/>
-        <item h="1" x="29"/>
-        <item x="26"/>
-        <item x="30"/>
-        <item x="23"/>
-        <item x="32"/>
-        <item x="25"/>
-        <item x="33"/>
-        <item x="24"/>
-        <item x="27"/>
-        <item x="34"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="6">
-        <item h="1" x="0"/>
-        <item h="1" x="2"/>
-        <item x="3"/>
-        <item h="1" x="1"/>
-        <item h="1" x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" sortType="ascending"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0" sortType="ascending">
-      <items count="12">
-        <item h="1" x="0"/>
-        <item x="6"/>
-        <item h="1" x="10"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="9"/>
-        <item x="4"/>
-        <item h="1" x="8"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="34"/>
-  </rowFields>
-  <rowItems count="1">
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="1"/>
-  </colFields>
-  <colItems count="1">
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="30" hier="-1"/>
-    <pageField fld="4" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Different Story Points" fld="36" baseField="26" baseItem="1"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="PivotTable2" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
-  <location ref="A24:G29" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="41">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="6">
-        <item h="1" x="0"/>
-        <item h="1" x="2"/>
-        <item x="3"/>
-        <item h="1" x="1"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0" sortType="ascending">
-      <items count="12">
-        <item h="1" x="0"/>
-        <item x="6"/>
-        <item x="10"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="9"/>
-        <item x="4"/>
-        <item x="8"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="5">
-        <item h="1" x="1"/>
-        <item x="2"/>
-        <item h="1" x="3"/>
-        <item h="1" x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="33"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="2">
-    <field x="1"/>
-    <field x="-2"/>
-  </colFields>
-  <colItems count="6">
-    <i>
-      <x v="3"/>
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="4"/>
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-    <i t="grand" i="1">
-      <x/>
-    </i>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="30" hier="-1"/>
-    <pageField fld="37" hier="-1"/>
-  </pageFields>
-  <dataFields count="2">
-    <dataField name="Count" fld="13" subtotal="count" baseField="26" baseItem="0"/>
-    <dataField name="SPs" fld="13" baseField="26" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000004000000}" name="PivotTable5" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
-  <location ref="A41:B43" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="41">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="47">
-        <item h="1" x="0"/>
-        <item h="1" x="41"/>
-        <item h="1" x="39"/>
-        <item h="1" x="43"/>
-        <item h="1" x="45"/>
-        <item h="1" x="36"/>
-        <item h="1" x="42"/>
-        <item h="1" x="38"/>
-        <item h="1" x="37"/>
-        <item h="1" x="40"/>
-        <item h="1" x="44"/>
-        <item h="1" x="8"/>
-        <item h="1" x="3"/>
-        <item h="1" x="9"/>
-        <item h="1" x="7"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item h="1" x="5"/>
-        <item h="1" x="4"/>
-        <item h="1" x="22"/>
-        <item x="15"/>
-        <item x="18"/>
-        <item h="1" x="16"/>
-        <item x="13"/>
-        <item x="17"/>
-        <item x="10"/>
-        <item x="19"/>
-        <item x="12"/>
-        <item x="20"/>
-        <item x="11"/>
-        <item x="14"/>
-        <item x="21"/>
-        <item h="1" x="35"/>
-        <item x="28"/>
-        <item x="31"/>
-        <item h="1" x="29"/>
-        <item x="26"/>
-        <item x="30"/>
-        <item x="23"/>
-        <item x="32"/>
-        <item x="25"/>
-        <item x="33"/>
-        <item x="24"/>
-        <item x="27"/>
-        <item x="34"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="6">
-        <item h="1" x="0"/>
-        <item h="1" x="2"/>
-        <item x="3"/>
-        <item h="1" x="1"/>
-        <item h="1" x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0" sortType="ascending">
-      <items count="12">
-        <item h="1" x="0"/>
-        <item x="6"/>
-        <item h="1" x="10"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="9"/>
-        <item x="4"/>
-        <item h="1" x="8"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="33"/>
-  </rowFields>
-  <rowItems count="1">
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="1"/>
-  </colFields>
-  <colItems count="1">
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="30" hier="-1"/>
-    <pageField fld="4" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Different Story Points" fld="36" baseField="26" baseItem="1"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -10860,11 +10896,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.46484375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.46484375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.46484375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.86328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
@@ -12313,7 +12349,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:C1"/>
+      <selection pane="bottomRight" activeCell="V24" sqref="V24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -13662,121 +13698,193 @@
       <c r="C16" s="44">
         <v>43368</v>
       </c>
-      <c r="D16" s="41" t="e">
+      <c r="D16" s="41">
+        <v>2227</v>
+      </c>
+      <c r="E16" s="48">
+        <v>2380</v>
+      </c>
+      <c r="F16" s="42">
+        <v>2227</v>
+      </c>
+      <c r="G16" s="42">
+        <v>2227</v>
+      </c>
+      <c r="H16" s="42">
+        <f t="shared" ref="H16" si="98">D16-I16</f>
+        <v>2103</v>
+      </c>
+      <c r="I16" s="42">
+        <v>124</v>
+      </c>
+      <c r="J16" s="21">
+        <f t="shared" ref="J16" si="99" xml:space="preserve"> G16/D16</f>
+        <v>1</v>
+      </c>
+      <c r="K16" s="21">
+        <f t="shared" ref="K16" si="100" xml:space="preserve"> H16/D16</f>
+        <v>0.94431971261787162</v>
+      </c>
+      <c r="L16" s="43">
+        <v>964.5</v>
+      </c>
+      <c r="M16" s="48">
+        <v>1400</v>
+      </c>
+      <c r="N16" s="42">
+        <v>964.5</v>
+      </c>
+      <c r="O16" s="42">
+        <v>964.5</v>
+      </c>
+      <c r="P16" s="42">
+        <f t="shared" ref="P16" si="101">L16-Q16</f>
+        <v>957.5</v>
+      </c>
+      <c r="Q16" s="42">
+        <v>7</v>
+      </c>
+      <c r="R16" s="21">
+        <f t="shared" ref="R16" si="102" xml:space="preserve"> O16/L16</f>
+        <v>1</v>
+      </c>
+      <c r="S16" s="21">
+        <f t="shared" ref="S16" si="103" xml:space="preserve"> P16/L16</f>
+        <v>0.99274235355106277</v>
+      </c>
+      <c r="T16" s="41">
+        <v>948.5</v>
+      </c>
+      <c r="U16" s="48">
+        <v>700</v>
+      </c>
+      <c r="V16" s="42">
+        <v>948.5</v>
+      </c>
+      <c r="W16" s="42">
+        <v>948.5</v>
+      </c>
+      <c r="X16" s="42">
+        <f t="shared" ref="X16" si="104">T16-Y16</f>
+        <v>860.5</v>
+      </c>
+      <c r="Y16" s="42">
+        <v>88</v>
+      </c>
+      <c r="Z16" s="21">
+        <f t="shared" ref="Z16" si="105" xml:space="preserve"> W16/T16</f>
+        <v>1</v>
+      </c>
+      <c r="AA16" s="21">
+        <f t="shared" ref="AA16" si="106">X16/T16</f>
+        <v>0.90722192936215074</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>195</v>
+      </c>
+      <c r="B17" s="46">
+        <v>43369</v>
+      </c>
+      <c r="C17" s="46">
+        <v>43382</v>
+      </c>
+      <c r="D17" s="41" t="e">
         <f>GETPIVOTDATA("Epic Total Estimate", Features!$A$5, "Type", "Epic")</f>
         <v>#REF!</v>
       </c>
-      <c r="E16" s="48">
+      <c r="E17" s="48">
         <v>2380</v>
       </c>
-      <c r="F16" s="42" t="e">
+      <c r="F17" s="42" t="e">
         <f>GETPIVOTDATA("Stories Estimate", Features!$A$5, "Type", "Epic")</f>
         <v>#REF!</v>
       </c>
-      <c r="G16" s="42" t="e">
+      <c r="G17" s="42" t="e">
         <f>GETPIVOTDATA("Epic Decomposed", Features!$A$5, "Type", "Epic")</f>
         <v>#REF!</v>
       </c>
-      <c r="H16" s="42" t="e">
-        <f t="shared" ref="H16" si="98">D16-I16</f>
+      <c r="H17" s="42" t="e">
+        <f t="shared" ref="H17" si="107">D17-I17</f>
         <v>#REF!</v>
       </c>
-      <c r="I16" s="42" t="e">
+      <c r="I17" s="42" t="e">
         <f>GETPIVOTDATA("Epic Remaining Estimate", Features!$A$5, "Type", "Epic")</f>
         <v>#REF!</v>
       </c>
-      <c r="J16" s="21" t="e">
-        <f t="shared" ref="J16" si="99" xml:space="preserve"> G16/D16</f>
+      <c r="J17" s="21" t="e">
+        <f t="shared" ref="J17" si="108" xml:space="preserve"> G17/D17</f>
         <v>#REF!</v>
       </c>
-      <c r="K16" s="21" t="e">
-        <f t="shared" ref="K16" si="100" xml:space="preserve"> H16/D16</f>
+      <c r="K17" s="21" t="e">
+        <f t="shared" ref="K17" si="109" xml:space="preserve"> H17/D17</f>
         <v>#REF!</v>
       </c>
-      <c r="L16" s="43" t="e">
+      <c r="L17" s="43" t="e">
         <f>GETPIVOTDATA("Epic Total Estimate", Features!$A$5, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
         <v>#REF!</v>
       </c>
-      <c r="M16" s="48">
+      <c r="M17" s="48">
         <v>1400</v>
       </c>
-      <c r="N16" s="42" t="e">
+      <c r="N17" s="42" t="e">
         <f>GETPIVOTDATA("Stories Estimate", Features!$A$5, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
         <v>#REF!</v>
       </c>
-      <c r="O16" s="42" t="e">
+      <c r="O17" s="42" t="e">
         <f>GETPIVOTDATA("Epic Decomposed", Features!$A$5, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
         <v>#REF!</v>
       </c>
-      <c r="P16" s="42" t="e">
-        <f t="shared" ref="P16" si="101">L16-Q16</f>
+      <c r="P17" s="42" t="e">
+        <f t="shared" ref="P17" si="110">L17-Q17</f>
         <v>#REF!</v>
       </c>
-      <c r="Q16" s="42" t="e">
+      <c r="Q17" s="42" t="e">
         <f>GETPIVOTDATA("Epic Remaining Estimate", Features!$A$5, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
         <v>#REF!</v>
       </c>
-      <c r="R16" s="21" t="e">
-        <f t="shared" ref="R16" si="102" xml:space="preserve"> O16/L16</f>
+      <c r="R17" s="21" t="e">
+        <f t="shared" ref="R17" si="111" xml:space="preserve"> O17/L17</f>
         <v>#REF!</v>
       </c>
-      <c r="S16" s="21" t="e">
-        <f t="shared" ref="S16" si="103" xml:space="preserve"> P16/L16</f>
+      <c r="S17" s="21" t="e">
+        <f t="shared" ref="S17" si="112" xml:space="preserve"> P17/L17</f>
         <v>#REF!</v>
       </c>
-      <c r="T16" s="41" t="e">
+      <c r="T17" s="41" t="e">
         <f>GETPIVOTDATA("Epic Total Estimate", Features!$A$5, "Type", "Epic", "ST:Components", "Artifact List")</f>
         <v>#REF!</v>
       </c>
-      <c r="U16" s="48">
+      <c r="U17" s="48">
         <v>700</v>
       </c>
-      <c r="V16" s="42" t="e">
+      <c r="V17" s="42" t="e">
         <f>GETPIVOTDATA("Stories Estimate", Features!$A$5, "Type", "Epic", "ST:Components", "Artifact List")</f>
         <v>#REF!</v>
       </c>
-      <c r="W16" s="42" t="e">
+      <c r="W17" s="42" t="e">
         <f>GETPIVOTDATA("Epic Decomposed", Features!$A$5, "Type", "Epic", "ST:Components", "Artifact List")</f>
         <v>#REF!</v>
       </c>
-      <c r="X16" s="42" t="e">
-        <f t="shared" ref="X16" si="104">T16-Y16</f>
+      <c r="X17" s="42" t="e">
+        <f t="shared" ref="X17" si="113">T17-Y17</f>
         <v>#REF!</v>
       </c>
-      <c r="Y16" s="42" t="e">
+      <c r="Y17" s="42" t="e">
         <f>GETPIVOTDATA("Epic Remaining Estimate", Features!$A$5, "Type", "Epic", "ST:Components", "Artifact List")</f>
         <v>#REF!</v>
       </c>
-      <c r="Z16" s="21" t="e">
-        <f t="shared" ref="Z16" si="105" xml:space="preserve"> W16/T16</f>
+      <c r="Z17" s="21" t="e">
+        <f t="shared" ref="Z17" si="114" xml:space="preserve"> W17/T17</f>
         <v>#REF!</v>
       </c>
-      <c r="AA16" s="21" t="e">
-        <f t="shared" ref="AA16" si="106">X16/T16</f>
+      <c r="AA17" s="21" t="e">
+        <f t="shared" ref="AA17" si="115">X17/T17</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>195</v>
-      </c>
-      <c r="B17" s="46">
-        <v>43369</v>
-      </c>
-      <c r="C17" s="46">
-        <v>43382</v>
-      </c>
-      <c r="E17" s="48">
-        <v>2380</v>
-      </c>
-      <c r="M17" s="48">
-        <v>1400</v>
-      </c>
-      <c r="U17" s="48">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B18" s="45"/>
     </row>
   </sheetData>
